--- a/上机/期中考试/3(本班)/3-w加权成绩.xlsx
+++ b/上机/期中考试/3(本班)/3-w加权成绩.xlsx
@@ -11,22 +11,26 @@
     <sheet name="CS006001068" sheetId="2" r:id="rId2"/>
     <sheet name="CS006001067" sheetId="3" r:id="rId3"/>
     <sheet name="CS006001061" sheetId="4" r:id="rId4"/>
-    <sheet name="CS006001060(本班) (2)" sheetId="14" r:id="rId5"/>
-    <sheet name="CS006001060(本班)" sheetId="5" r:id="rId6"/>
-    <sheet name="CS006001049" sheetId="6" r:id="rId7"/>
-    <sheet name="CS006001047" sheetId="7" r:id="rId8"/>
-    <sheet name="CS006001046" sheetId="8" r:id="rId9"/>
-    <sheet name="CS006001043" sheetId="9" r:id="rId10"/>
-    <sheet name="CS006001041" sheetId="10" r:id="rId11"/>
-    <sheet name="CS006001014" sheetId="11" r:id="rId12"/>
-    <sheet name="CS006001010" sheetId="12" r:id="rId13"/>
+    <sheet name="CS006001060(本班) (3)" sheetId="15" r:id="rId5"/>
+    <sheet name="CS006001060(本班) (2)" sheetId="14" r:id="rId6"/>
+    <sheet name="CS006001060(本班)" sheetId="5" r:id="rId7"/>
+    <sheet name="CS006001049" sheetId="6" r:id="rId8"/>
+    <sheet name="CS006001047" sheetId="7" r:id="rId9"/>
+    <sheet name="CS006001046" sheetId="8" r:id="rId10"/>
+    <sheet name="CS006001043" sheetId="9" r:id="rId11"/>
+    <sheet name="CS006001041" sheetId="10" r:id="rId12"/>
+    <sheet name="CS006001014" sheetId="11" r:id="rId13"/>
+    <sheet name="CS006001010" sheetId="12" r:id="rId14"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'CS006001060(本班) (3)'!$A$1:$I$10</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7025" uniqueCount="1790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7051" uniqueCount="1790">
   <si>
     <t>User Id</t>
   </si>
@@ -5447,7 +5451,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5455,6 +5459,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6786,6 +6796,4472 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N102"/>
   <sheetViews>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="N102" sqref="N102"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2">
+        <v>100</v>
+      </c>
+      <c r="K2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2">
+        <v>50</v>
+      </c>
+      <c r="M2">
+        <v>350</v>
+      </c>
+      <c r="N2">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3">
+        <v>100</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3">
+        <v>100</v>
+      </c>
+      <c r="M3">
+        <v>500</v>
+      </c>
+      <c r="N3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4">
+        <v>100</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4">
+        <v>100</v>
+      </c>
+      <c r="M4">
+        <v>500</v>
+      </c>
+      <c r="N4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <v>100</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5">
+        <v>100</v>
+      </c>
+      <c r="M5">
+        <v>500</v>
+      </c>
+      <c r="N5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6">
+        <v>100</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6">
+        <v>100</v>
+      </c>
+      <c r="M6">
+        <v>500</v>
+      </c>
+      <c r="N6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7">
+        <v>100</v>
+      </c>
+      <c r="K7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7">
+        <v>100</v>
+      </c>
+      <c r="M7">
+        <v>400</v>
+      </c>
+      <c r="N7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8">
+        <v>100</v>
+      </c>
+      <c r="M8">
+        <v>500</v>
+      </c>
+      <c r="N8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9">
+        <v>100</v>
+      </c>
+      <c r="M9">
+        <v>400</v>
+      </c>
+      <c r="N9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10">
+        <v>100</v>
+      </c>
+      <c r="M10">
+        <v>500</v>
+      </c>
+      <c r="N10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11">
+        <v>100</v>
+      </c>
+      <c r="K11" t="s">
+        <v>165</v>
+      </c>
+      <c r="L11">
+        <v>50</v>
+      </c>
+      <c r="M11">
+        <v>350</v>
+      </c>
+      <c r="N11">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12">
+        <v>100</v>
+      </c>
+      <c r="I12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12">
+        <v>100</v>
+      </c>
+      <c r="K12" t="s">
+        <v>65</v>
+      </c>
+      <c r="L12">
+        <v>100</v>
+      </c>
+      <c r="M12">
+        <v>500</v>
+      </c>
+      <c r="N12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13">
+        <v>100</v>
+      </c>
+      <c r="K13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13">
+        <v>50</v>
+      </c>
+      <c r="M13">
+        <v>350</v>
+      </c>
+      <c r="N13">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B14" t="s">
+        <v>200</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14">
+        <v>25</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14">
+        <v>100</v>
+      </c>
+      <c r="K14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14">
+        <v>100</v>
+      </c>
+      <c r="M14">
+        <v>425</v>
+      </c>
+      <c r="N14">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>237</v>
+      </c>
+      <c r="B15" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15">
+        <v>80</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15">
+        <v>20</v>
+      </c>
+      <c r="K15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>100</v>
+      </c>
+      <c r="N15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>295</v>
+      </c>
+      <c r="B16" t="s">
+        <v>296</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16">
+        <v>100</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16">
+        <v>100</v>
+      </c>
+      <c r="K16" t="s">
+        <v>47</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>300</v>
+      </c>
+      <c r="N16">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>365</v>
+      </c>
+      <c r="B17" t="s">
+        <v>366</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17">
+        <v>100</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17">
+        <v>100</v>
+      </c>
+      <c r="K17" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>300</v>
+      </c>
+      <c r="N17">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>367</v>
+      </c>
+      <c r="B18" t="s">
+        <v>368</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <v>100</v>
+      </c>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18">
+        <v>80</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18">
+        <v>100</v>
+      </c>
+      <c r="K18" t="s">
+        <v>47</v>
+      </c>
+      <c r="L18">
+        <v>50</v>
+      </c>
+      <c r="M18">
+        <v>330</v>
+      </c>
+      <c r="N18">
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>369</v>
+      </c>
+      <c r="B19" t="s">
+        <v>370</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19">
+        <v>100</v>
+      </c>
+      <c r="E19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19">
+        <v>100</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19">
+        <v>100</v>
+      </c>
+      <c r="I19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19">
+        <v>100</v>
+      </c>
+      <c r="K19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19">
+        <v>100</v>
+      </c>
+      <c r="M19">
+        <v>500</v>
+      </c>
+      <c r="N19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>419</v>
+      </c>
+      <c r="B20" t="s">
+        <v>420</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <v>100</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20">
+        <v>100</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20">
+        <v>100</v>
+      </c>
+      <c r="K20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20">
+        <v>100</v>
+      </c>
+      <c r="M20">
+        <v>400</v>
+      </c>
+      <c r="N20">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>443</v>
+      </c>
+      <c r="B21" t="s">
+        <v>444</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21">
+        <v>100</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21">
+        <v>100</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21">
+        <v>100</v>
+      </c>
+      <c r="K21" t="s">
+        <v>40</v>
+      </c>
+      <c r="L21">
+        <v>50</v>
+      </c>
+      <c r="M21">
+        <v>350</v>
+      </c>
+      <c r="N21">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>498</v>
+      </c>
+      <c r="B22" t="s">
+        <v>499</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <v>100</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22">
+        <v>100</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22">
+        <v>100</v>
+      </c>
+      <c r="I22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22">
+        <v>100</v>
+      </c>
+      <c r="K22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22">
+        <v>100</v>
+      </c>
+      <c r="M22">
+        <v>500</v>
+      </c>
+      <c r="N22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>507</v>
+      </c>
+      <c r="B23" t="s">
+        <v>508</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <v>100</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23">
+        <v>100</v>
+      </c>
+      <c r="G23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23">
+        <v>100</v>
+      </c>
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23">
+        <v>100</v>
+      </c>
+      <c r="K23" t="s">
+        <v>65</v>
+      </c>
+      <c r="L23">
+        <v>100</v>
+      </c>
+      <c r="M23">
+        <v>500</v>
+      </c>
+      <c r="N23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>509</v>
+      </c>
+      <c r="B24" t="s">
+        <v>510</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24">
+        <v>100</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24">
+        <v>100</v>
+      </c>
+      <c r="G24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24">
+        <v>25</v>
+      </c>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+      <c r="J24">
+        <v>40</v>
+      </c>
+      <c r="K24" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24">
+        <v>50</v>
+      </c>
+      <c r="M24">
+        <v>315</v>
+      </c>
+      <c r="N24">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>557</v>
+      </c>
+      <c r="B25" t="s">
+        <v>558</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25">
+        <v>100</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25">
+        <v>100</v>
+      </c>
+      <c r="G25" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25">
+        <v>50</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25">
+        <v>100</v>
+      </c>
+      <c r="K25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25">
+        <v>100</v>
+      </c>
+      <c r="M25">
+        <v>450</v>
+      </c>
+      <c r="N25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>559</v>
+      </c>
+      <c r="B26" t="s">
+        <v>560</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26">
+        <v>100</v>
+      </c>
+      <c r="E26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26">
+        <v>100</v>
+      </c>
+      <c r="G26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26">
+        <v>100</v>
+      </c>
+      <c r="K26" t="s">
+        <v>65</v>
+      </c>
+      <c r="L26">
+        <v>100</v>
+      </c>
+      <c r="M26">
+        <v>400</v>
+      </c>
+      <c r="N26">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>561</v>
+      </c>
+      <c r="B27" t="s">
+        <v>562</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27">
+        <v>100</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27">
+        <v>100</v>
+      </c>
+      <c r="I27" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27">
+        <v>100</v>
+      </c>
+      <c r="K27" t="s">
+        <v>34</v>
+      </c>
+      <c r="L27">
+        <v>100</v>
+      </c>
+      <c r="M27">
+        <v>500</v>
+      </c>
+      <c r="N27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>594</v>
+      </c>
+      <c r="B28" t="s">
+        <v>595</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28">
+        <v>100</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28">
+        <v>100</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28">
+        <v>100</v>
+      </c>
+      <c r="I28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28">
+        <v>100</v>
+      </c>
+      <c r="K28" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28">
+        <v>100</v>
+      </c>
+      <c r="M28">
+        <v>500</v>
+      </c>
+      <c r="N28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>600</v>
+      </c>
+      <c r="B29" t="s">
+        <v>601</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29">
+        <v>100</v>
+      </c>
+      <c r="E29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29">
+        <v>100</v>
+      </c>
+      <c r="G29" t="s">
+        <v>64</v>
+      </c>
+      <c r="H29">
+        <v>50</v>
+      </c>
+      <c r="I29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29">
+        <v>100</v>
+      </c>
+      <c r="K29" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29">
+        <v>100</v>
+      </c>
+      <c r="M29">
+        <v>450</v>
+      </c>
+      <c r="N29">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>618</v>
+      </c>
+      <c r="B30" t="s">
+        <v>619</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30">
+        <v>100</v>
+      </c>
+      <c r="E30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30">
+        <v>100</v>
+      </c>
+      <c r="G30" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30">
+        <v>100</v>
+      </c>
+      <c r="I30" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30">
+        <v>100</v>
+      </c>
+      <c r="K30" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30">
+        <v>100</v>
+      </c>
+      <c r="M30">
+        <v>500</v>
+      </c>
+      <c r="N30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>774</v>
+      </c>
+      <c r="B31" t="s">
+        <v>775</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31">
+        <v>100</v>
+      </c>
+      <c r="E31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31">
+        <v>100</v>
+      </c>
+      <c r="G31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31">
+        <v>100</v>
+      </c>
+      <c r="K31" t="s">
+        <v>23</v>
+      </c>
+      <c r="L31">
+        <v>50</v>
+      </c>
+      <c r="M31">
+        <v>350</v>
+      </c>
+      <c r="N31">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>793</v>
+      </c>
+      <c r="B32" t="s">
+        <v>794</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32">
+        <v>100</v>
+      </c>
+      <c r="E32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32">
+        <v>100</v>
+      </c>
+      <c r="G32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32">
+        <v>100</v>
+      </c>
+      <c r="I32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32">
+        <v>100</v>
+      </c>
+      <c r="K32" t="s">
+        <v>64</v>
+      </c>
+      <c r="L32">
+        <v>75</v>
+      </c>
+      <c r="M32">
+        <v>475</v>
+      </c>
+      <c r="N32">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>822</v>
+      </c>
+      <c r="B33" t="s">
+        <v>823</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33">
+        <v>100</v>
+      </c>
+      <c r="E33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33">
+        <v>100</v>
+      </c>
+      <c r="G33" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>50</v>
+      </c>
+      <c r="J33">
+        <v>100</v>
+      </c>
+      <c r="K33" t="s">
+        <v>61</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>300</v>
+      </c>
+      <c r="N33">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>828</v>
+      </c>
+      <c r="B34" t="s">
+        <v>829</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34">
+        <v>100</v>
+      </c>
+      <c r="E34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34">
+        <v>100</v>
+      </c>
+      <c r="G34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34">
+        <v>100</v>
+      </c>
+      <c r="K34" t="s">
+        <v>61</v>
+      </c>
+      <c r="L34">
+        <v>50</v>
+      </c>
+      <c r="M34">
+        <v>350</v>
+      </c>
+      <c r="N34">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>830</v>
+      </c>
+      <c r="B35" t="s">
+        <v>831</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35">
+        <v>100</v>
+      </c>
+      <c r="E35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35">
+        <v>100</v>
+      </c>
+      <c r="G35" t="s">
+        <v>55</v>
+      </c>
+      <c r="H35">
+        <v>25</v>
+      </c>
+      <c r="I35" t="s">
+        <v>65</v>
+      </c>
+      <c r="J35">
+        <v>100</v>
+      </c>
+      <c r="K35" t="s">
+        <v>19</v>
+      </c>
+      <c r="L35">
+        <v>100</v>
+      </c>
+      <c r="M35">
+        <v>425</v>
+      </c>
+      <c r="N35">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>846</v>
+      </c>
+      <c r="B36" t="s">
+        <v>847</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36">
+        <v>100</v>
+      </c>
+      <c r="E36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36">
+        <v>100</v>
+      </c>
+      <c r="G36" t="s">
+        <v>65</v>
+      </c>
+      <c r="H36">
+        <v>100</v>
+      </c>
+      <c r="I36" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36">
+        <v>100</v>
+      </c>
+      <c r="K36" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36">
+        <v>100</v>
+      </c>
+      <c r="M36">
+        <v>500</v>
+      </c>
+      <c r="N36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>852</v>
+      </c>
+      <c r="B37" t="s">
+        <v>853</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37">
+        <v>100</v>
+      </c>
+      <c r="E37" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37">
+        <v>60</v>
+      </c>
+      <c r="G37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>22</v>
+      </c>
+      <c r="J37">
+        <v>100</v>
+      </c>
+      <c r="K37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37">
+        <v>100</v>
+      </c>
+      <c r="M37">
+        <v>360</v>
+      </c>
+      <c r="N37">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>856</v>
+      </c>
+      <c r="B38" t="s">
+        <v>857</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38">
+        <v>100</v>
+      </c>
+      <c r="E38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" t="s">
+        <v>24</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>100</v>
+      </c>
+      <c r="N38">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>896</v>
+      </c>
+      <c r="B39" t="s">
+        <v>897</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39">
+        <v>100</v>
+      </c>
+      <c r="E39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39">
+        <v>100</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39">
+        <v>100</v>
+      </c>
+      <c r="I39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39">
+        <v>100</v>
+      </c>
+      <c r="K39" t="s">
+        <v>84</v>
+      </c>
+      <c r="L39">
+        <v>75</v>
+      </c>
+      <c r="M39">
+        <v>475</v>
+      </c>
+      <c r="N39">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>906</v>
+      </c>
+      <c r="B40" t="s">
+        <v>907</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40">
+        <v>100</v>
+      </c>
+      <c r="E40" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40">
+        <v>100</v>
+      </c>
+      <c r="G40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40">
+        <v>100</v>
+      </c>
+      <c r="K40" t="s">
+        <v>23</v>
+      </c>
+      <c r="L40">
+        <v>50</v>
+      </c>
+      <c r="M40">
+        <v>350</v>
+      </c>
+      <c r="N40">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>922</v>
+      </c>
+      <c r="B41" t="s">
+        <v>923</v>
+      </c>
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41">
+        <v>100</v>
+      </c>
+      <c r="E41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41">
+        <v>100</v>
+      </c>
+      <c r="G41" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>84</v>
+      </c>
+      <c r="J41">
+        <v>20</v>
+      </c>
+      <c r="K41" t="s">
+        <v>47</v>
+      </c>
+      <c r="L41">
+        <v>25</v>
+      </c>
+      <c r="M41">
+        <v>245</v>
+      </c>
+      <c r="N41">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>924</v>
+      </c>
+      <c r="B42" t="s">
+        <v>925</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42">
+        <v>100</v>
+      </c>
+      <c r="E42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42">
+        <v>100</v>
+      </c>
+      <c r="G42" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42">
+        <v>100</v>
+      </c>
+      <c r="K42" t="s">
+        <v>56</v>
+      </c>
+      <c r="L42">
+        <v>50</v>
+      </c>
+      <c r="M42">
+        <v>350</v>
+      </c>
+      <c r="N42">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>935</v>
+      </c>
+      <c r="B43" t="s">
+        <v>936</v>
+      </c>
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43">
+        <v>100</v>
+      </c>
+      <c r="E43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43">
+        <v>100</v>
+      </c>
+      <c r="G43" t="s">
+        <v>47</v>
+      </c>
+      <c r="H43">
+        <v>50</v>
+      </c>
+      <c r="I43" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43">
+        <v>100</v>
+      </c>
+      <c r="K43" t="s">
+        <v>23</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>350</v>
+      </c>
+      <c r="N43">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>952</v>
+      </c>
+      <c r="B44" t="s">
+        <v>953</v>
+      </c>
+      <c r="C44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44">
+        <v>100</v>
+      </c>
+      <c r="E44" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44">
+        <v>100</v>
+      </c>
+      <c r="G44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44">
+        <v>100</v>
+      </c>
+      <c r="I44" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44">
+        <v>100</v>
+      </c>
+      <c r="K44" t="s">
+        <v>18</v>
+      </c>
+      <c r="L44">
+        <v>100</v>
+      </c>
+      <c r="M44">
+        <v>500</v>
+      </c>
+      <c r="N44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>954</v>
+      </c>
+      <c r="B45" t="s">
+        <v>955</v>
+      </c>
+      <c r="C45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45">
+        <v>100</v>
+      </c>
+      <c r="E45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45">
+        <v>100</v>
+      </c>
+      <c r="G45" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45">
+        <v>100</v>
+      </c>
+      <c r="K45" t="s">
+        <v>47</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>300</v>
+      </c>
+      <c r="N45">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>966</v>
+      </c>
+      <c r="B46" t="s">
+        <v>967</v>
+      </c>
+      <c r="C46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46">
+        <v>100</v>
+      </c>
+      <c r="E46" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46">
+        <v>100</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46">
+        <v>100</v>
+      </c>
+      <c r="I46" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46">
+        <v>100</v>
+      </c>
+      <c r="K46" t="s">
+        <v>65</v>
+      </c>
+      <c r="L46">
+        <v>100</v>
+      </c>
+      <c r="M46">
+        <v>500</v>
+      </c>
+      <c r="N46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>972</v>
+      </c>
+      <c r="B47" t="s">
+        <v>973</v>
+      </c>
+      <c r="C47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47">
+        <v>100</v>
+      </c>
+      <c r="E47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47">
+        <v>100</v>
+      </c>
+      <c r="G47" t="s">
+        <v>47</v>
+      </c>
+      <c r="H47">
+        <v>25</v>
+      </c>
+      <c r="I47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47">
+        <v>100</v>
+      </c>
+      <c r="K47" t="s">
+        <v>17</v>
+      </c>
+      <c r="L47">
+        <v>100</v>
+      </c>
+      <c r="M47">
+        <v>425</v>
+      </c>
+      <c r="N47">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>976</v>
+      </c>
+      <c r="B48" t="s">
+        <v>977</v>
+      </c>
+      <c r="C48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48">
+        <v>100</v>
+      </c>
+      <c r="E48" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48">
+        <v>80</v>
+      </c>
+      <c r="G48" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48" t="s">
+        <v>23</v>
+      </c>
+      <c r="J48">
+        <v>20</v>
+      </c>
+      <c r="K48" t="s">
+        <v>16</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>200</v>
+      </c>
+      <c r="N48">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>978</v>
+      </c>
+      <c r="B49" t="s">
+        <v>979</v>
+      </c>
+      <c r="C49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49">
+        <v>100</v>
+      </c>
+      <c r="E49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49">
+        <v>100</v>
+      </c>
+      <c r="G49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H49">
+        <v>25</v>
+      </c>
+      <c r="I49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49">
+        <v>100</v>
+      </c>
+      <c r="K49" t="s">
+        <v>56</v>
+      </c>
+      <c r="L49">
+        <v>50</v>
+      </c>
+      <c r="M49">
+        <v>375</v>
+      </c>
+      <c r="N49">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>988</v>
+      </c>
+      <c r="B50" t="s">
+        <v>989</v>
+      </c>
+      <c r="C50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50">
+        <v>100</v>
+      </c>
+      <c r="E50" t="s">
+        <v>65</v>
+      </c>
+      <c r="F50">
+        <v>100</v>
+      </c>
+      <c r="G50" t="s">
+        <v>65</v>
+      </c>
+      <c r="H50">
+        <v>100</v>
+      </c>
+      <c r="I50" t="s">
+        <v>22</v>
+      </c>
+      <c r="J50">
+        <v>100</v>
+      </c>
+      <c r="K50" t="s">
+        <v>18</v>
+      </c>
+      <c r="L50">
+        <v>100</v>
+      </c>
+      <c r="M50">
+        <v>500</v>
+      </c>
+      <c r="N50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>990</v>
+      </c>
+      <c r="B51" t="s">
+        <v>991</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51">
+        <v>100</v>
+      </c>
+      <c r="E51" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51" t="s">
+        <v>47</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>23</v>
+      </c>
+      <c r="J51">
+        <v>20</v>
+      </c>
+      <c r="K51" t="s">
+        <v>47</v>
+      </c>
+      <c r="L51">
+        <v>50</v>
+      </c>
+      <c r="M51">
+        <v>170</v>
+      </c>
+      <c r="N51">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>992</v>
+      </c>
+      <c r="B52" t="s">
+        <v>993</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52">
+        <v>100</v>
+      </c>
+      <c r="E52" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52">
+        <v>100</v>
+      </c>
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52">
+        <v>100</v>
+      </c>
+      <c r="I52" t="s">
+        <v>18</v>
+      </c>
+      <c r="J52">
+        <v>100</v>
+      </c>
+      <c r="K52" t="s">
+        <v>17</v>
+      </c>
+      <c r="L52">
+        <v>100</v>
+      </c>
+      <c r="M52">
+        <v>500</v>
+      </c>
+      <c r="N52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>994</v>
+      </c>
+      <c r="B53" t="s">
+        <v>995</v>
+      </c>
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53">
+        <v>100</v>
+      </c>
+      <c r="E53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53">
+        <v>100</v>
+      </c>
+      <c r="G53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53">
+        <v>100</v>
+      </c>
+      <c r="K53" t="s">
+        <v>19</v>
+      </c>
+      <c r="L53">
+        <v>100</v>
+      </c>
+      <c r="M53">
+        <v>400</v>
+      </c>
+      <c r="N53">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54">
+        <v>100</v>
+      </c>
+      <c r="E54" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54">
+        <v>100</v>
+      </c>
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54">
+        <v>100</v>
+      </c>
+      <c r="I54" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54">
+        <v>100</v>
+      </c>
+      <c r="K54" t="s">
+        <v>22</v>
+      </c>
+      <c r="L54">
+        <v>100</v>
+      </c>
+      <c r="M54">
+        <v>500</v>
+      </c>
+      <c r="N54">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55">
+        <v>100</v>
+      </c>
+      <c r="E55" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55">
+        <v>100</v>
+      </c>
+      <c r="G55" t="s">
+        <v>47</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55" t="s">
+        <v>18</v>
+      </c>
+      <c r="J55">
+        <v>100</v>
+      </c>
+      <c r="K55" t="s">
+        <v>17</v>
+      </c>
+      <c r="L55">
+        <v>100</v>
+      </c>
+      <c r="M55">
+        <v>400</v>
+      </c>
+      <c r="N55">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56">
+        <v>100</v>
+      </c>
+      <c r="E56" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56">
+        <v>100</v>
+      </c>
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56">
+        <v>100</v>
+      </c>
+      <c r="I56" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56">
+        <v>100</v>
+      </c>
+      <c r="K56" t="s">
+        <v>22</v>
+      </c>
+      <c r="L56">
+        <v>100</v>
+      </c>
+      <c r="M56">
+        <v>500</v>
+      </c>
+      <c r="N56">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57">
+        <v>100</v>
+      </c>
+      <c r="E57" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57">
+        <v>100</v>
+      </c>
+      <c r="G57" t="s">
+        <v>16</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57">
+        <v>100</v>
+      </c>
+      <c r="K57" t="s">
+        <v>16</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>300</v>
+      </c>
+      <c r="N57">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58">
+        <v>100</v>
+      </c>
+      <c r="E58" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58">
+        <v>100</v>
+      </c>
+      <c r="G58" t="s">
+        <v>22</v>
+      </c>
+      <c r="H58">
+        <v>100</v>
+      </c>
+      <c r="I58" t="s">
+        <v>18</v>
+      </c>
+      <c r="J58">
+        <v>100</v>
+      </c>
+      <c r="K58" t="s">
+        <v>65</v>
+      </c>
+      <c r="L58">
+        <v>100</v>
+      </c>
+      <c r="M58">
+        <v>500</v>
+      </c>
+      <c r="N58">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59">
+        <v>100</v>
+      </c>
+      <c r="E59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59">
+        <v>100</v>
+      </c>
+      <c r="G59" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59">
+        <v>100</v>
+      </c>
+      <c r="K59" t="s">
+        <v>18</v>
+      </c>
+      <c r="L59">
+        <v>100</v>
+      </c>
+      <c r="M59">
+        <v>400</v>
+      </c>
+      <c r="N59">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C60" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60">
+        <v>100</v>
+      </c>
+      <c r="E60" t="s">
+        <v>34</v>
+      </c>
+      <c r="F60">
+        <v>100</v>
+      </c>
+      <c r="G60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60" t="s">
+        <v>84</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60" t="s">
+        <v>18</v>
+      </c>
+      <c r="L60">
+        <v>100</v>
+      </c>
+      <c r="M60">
+        <v>300</v>
+      </c>
+      <c r="N60">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61">
+        <v>100</v>
+      </c>
+      <c r="E61" t="s">
+        <v>23</v>
+      </c>
+      <c r="F61">
+        <v>60</v>
+      </c>
+      <c r="G61" t="s">
+        <v>16</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61" t="s">
+        <v>17</v>
+      </c>
+      <c r="J61">
+        <v>100</v>
+      </c>
+      <c r="K61" t="s">
+        <v>23</v>
+      </c>
+      <c r="L61">
+        <v>50</v>
+      </c>
+      <c r="M61">
+        <v>310</v>
+      </c>
+      <c r="N61">
+        <v>74.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62">
+        <v>100</v>
+      </c>
+      <c r="E62" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62">
+        <v>100</v>
+      </c>
+      <c r="G62" t="s">
+        <v>84</v>
+      </c>
+      <c r="H62">
+        <v>50</v>
+      </c>
+      <c r="I62" t="s">
+        <v>17</v>
+      </c>
+      <c r="J62">
+        <v>100</v>
+      </c>
+      <c r="K62" t="s">
+        <v>40</v>
+      </c>
+      <c r="L62">
+        <v>50</v>
+      </c>
+      <c r="M62">
+        <v>400</v>
+      </c>
+      <c r="N62">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63">
+        <v>100</v>
+      </c>
+      <c r="E63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63">
+        <v>100</v>
+      </c>
+      <c r="G63" t="s">
+        <v>16</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63" t="s">
+        <v>17</v>
+      </c>
+      <c r="J63">
+        <v>100</v>
+      </c>
+      <c r="K63" t="s">
+        <v>40</v>
+      </c>
+      <c r="L63">
+        <v>50</v>
+      </c>
+      <c r="M63">
+        <v>350</v>
+      </c>
+      <c r="N63">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64">
+        <v>100</v>
+      </c>
+      <c r="E64" t="s">
+        <v>17</v>
+      </c>
+      <c r="F64">
+        <v>100</v>
+      </c>
+      <c r="G64" t="s">
+        <v>47</v>
+      </c>
+      <c r="H64">
+        <v>25</v>
+      </c>
+      <c r="I64" t="s">
+        <v>18</v>
+      </c>
+      <c r="J64">
+        <v>100</v>
+      </c>
+      <c r="K64" t="s">
+        <v>18</v>
+      </c>
+      <c r="L64">
+        <v>100</v>
+      </c>
+      <c r="M64">
+        <v>425</v>
+      </c>
+      <c r="N64">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C65" t="s">
+        <v>65</v>
+      </c>
+      <c r="D65">
+        <v>100</v>
+      </c>
+      <c r="E65" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65">
+        <v>100</v>
+      </c>
+      <c r="G65" t="s">
+        <v>16</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65" t="s">
+        <v>22</v>
+      </c>
+      <c r="J65">
+        <v>100</v>
+      </c>
+      <c r="K65" t="s">
+        <v>40</v>
+      </c>
+      <c r="L65">
+        <v>50</v>
+      </c>
+      <c r="M65">
+        <v>350</v>
+      </c>
+      <c r="N65">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66">
+        <v>100</v>
+      </c>
+      <c r="E66" t="s">
+        <v>17</v>
+      </c>
+      <c r="F66">
+        <v>100</v>
+      </c>
+      <c r="G66" t="s">
+        <v>65</v>
+      </c>
+      <c r="H66">
+        <v>100</v>
+      </c>
+      <c r="I66" t="s">
+        <v>17</v>
+      </c>
+      <c r="J66">
+        <v>100</v>
+      </c>
+      <c r="K66" t="s">
+        <v>55</v>
+      </c>
+      <c r="L66">
+        <v>50</v>
+      </c>
+      <c r="M66">
+        <v>450</v>
+      </c>
+      <c r="N66">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C67" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67">
+        <v>100</v>
+      </c>
+      <c r="E67" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67">
+        <v>100</v>
+      </c>
+      <c r="G67" t="s">
+        <v>16</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67" t="s">
+        <v>17</v>
+      </c>
+      <c r="J67">
+        <v>100</v>
+      </c>
+      <c r="K67" t="s">
+        <v>56</v>
+      </c>
+      <c r="L67">
+        <v>50</v>
+      </c>
+      <c r="M67">
+        <v>350</v>
+      </c>
+      <c r="N67">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C68" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68">
+        <v>100</v>
+      </c>
+      <c r="E68" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68">
+        <v>100</v>
+      </c>
+      <c r="G68" t="s">
+        <v>16</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68" t="s">
+        <v>17</v>
+      </c>
+      <c r="J68">
+        <v>100</v>
+      </c>
+      <c r="K68" t="s">
+        <v>18</v>
+      </c>
+      <c r="L68">
+        <v>100</v>
+      </c>
+      <c r="M68">
+        <v>400</v>
+      </c>
+      <c r="N68">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C69" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69">
+        <v>100</v>
+      </c>
+      <c r="E69" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69">
+        <v>100</v>
+      </c>
+      <c r="G69" t="s">
+        <v>16</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69" t="s">
+        <v>17</v>
+      </c>
+      <c r="J69">
+        <v>100</v>
+      </c>
+      <c r="K69" t="s">
+        <v>16</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>300</v>
+      </c>
+      <c r="N69">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70">
+        <v>100</v>
+      </c>
+      <c r="E70" t="s">
+        <v>17</v>
+      </c>
+      <c r="F70">
+        <v>100</v>
+      </c>
+      <c r="G70" t="s">
+        <v>24</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70" t="s">
+        <v>17</v>
+      </c>
+      <c r="J70">
+        <v>100</v>
+      </c>
+      <c r="K70" t="s">
+        <v>23</v>
+      </c>
+      <c r="L70">
+        <v>50</v>
+      </c>
+      <c r="M70">
+        <v>350</v>
+      </c>
+      <c r="N70">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C71" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71">
+        <v>100</v>
+      </c>
+      <c r="E71" t="s">
+        <v>17</v>
+      </c>
+      <c r="F71">
+        <v>100</v>
+      </c>
+      <c r="G71" t="s">
+        <v>17</v>
+      </c>
+      <c r="H71">
+        <v>100</v>
+      </c>
+      <c r="I71" t="s">
+        <v>17</v>
+      </c>
+      <c r="J71">
+        <v>100</v>
+      </c>
+      <c r="K71" t="s">
+        <v>17</v>
+      </c>
+      <c r="L71">
+        <v>100</v>
+      </c>
+      <c r="M71">
+        <v>500</v>
+      </c>
+      <c r="N71">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C72" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72">
+        <v>100</v>
+      </c>
+      <c r="E72" t="s">
+        <v>18</v>
+      </c>
+      <c r="F72">
+        <v>100</v>
+      </c>
+      <c r="G72" t="s">
+        <v>22</v>
+      </c>
+      <c r="H72">
+        <v>100</v>
+      </c>
+      <c r="I72" t="s">
+        <v>24</v>
+      </c>
+      <c r="J72">
+        <v>40</v>
+      </c>
+      <c r="K72" t="s">
+        <v>84</v>
+      </c>
+      <c r="L72">
+        <v>50</v>
+      </c>
+      <c r="M72">
+        <v>390</v>
+      </c>
+      <c r="N72">
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C73" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73">
+        <v>100</v>
+      </c>
+      <c r="E73" t="s">
+        <v>18</v>
+      </c>
+      <c r="F73">
+        <v>100</v>
+      </c>
+      <c r="G73" t="s">
+        <v>16</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73" t="s">
+        <v>17</v>
+      </c>
+      <c r="J73">
+        <v>100</v>
+      </c>
+      <c r="K73" t="s">
+        <v>24</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>300</v>
+      </c>
+      <c r="N73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C74" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74">
+        <v>100</v>
+      </c>
+      <c r="E74" t="s">
+        <v>17</v>
+      </c>
+      <c r="F74">
+        <v>100</v>
+      </c>
+      <c r="G74" t="s">
+        <v>16</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74" t="s">
+        <v>22</v>
+      </c>
+      <c r="J74">
+        <v>100</v>
+      </c>
+      <c r="K74" t="s">
+        <v>24</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>300</v>
+      </c>
+      <c r="N74">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C75" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75">
+        <v>100</v>
+      </c>
+      <c r="E75" t="s">
+        <v>17</v>
+      </c>
+      <c r="F75">
+        <v>100</v>
+      </c>
+      <c r="G75" t="s">
+        <v>24</v>
+      </c>
+      <c r="H75">
+        <v>50</v>
+      </c>
+      <c r="I75" t="s">
+        <v>17</v>
+      </c>
+      <c r="J75">
+        <v>100</v>
+      </c>
+      <c r="K75" t="s">
+        <v>17</v>
+      </c>
+      <c r="L75">
+        <v>100</v>
+      </c>
+      <c r="M75">
+        <v>450</v>
+      </c>
+      <c r="N75">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C76" t="s">
+        <v>22</v>
+      </c>
+      <c r="D76">
+        <v>100</v>
+      </c>
+      <c r="E76" t="s">
+        <v>17</v>
+      </c>
+      <c r="F76">
+        <v>100</v>
+      </c>
+      <c r="G76" t="s">
+        <v>56</v>
+      </c>
+      <c r="H76">
+        <v>50</v>
+      </c>
+      <c r="I76" t="s">
+        <v>18</v>
+      </c>
+      <c r="J76">
+        <v>100</v>
+      </c>
+      <c r="K76" t="s">
+        <v>17</v>
+      </c>
+      <c r="L76">
+        <v>100</v>
+      </c>
+      <c r="M76">
+        <v>450</v>
+      </c>
+      <c r="N76">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C77" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77">
+        <v>100</v>
+      </c>
+      <c r="E77" t="s">
+        <v>309</v>
+      </c>
+      <c r="F77">
+        <v>80</v>
+      </c>
+      <c r="G77" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77">
+        <v>100</v>
+      </c>
+      <c r="I77" t="s">
+        <v>17</v>
+      </c>
+      <c r="J77">
+        <v>100</v>
+      </c>
+      <c r="K77" t="s">
+        <v>22</v>
+      </c>
+      <c r="L77">
+        <v>100</v>
+      </c>
+      <c r="M77">
+        <v>480</v>
+      </c>
+      <c r="N77">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C78" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78">
+        <v>100</v>
+      </c>
+      <c r="E78" t="s">
+        <v>17</v>
+      </c>
+      <c r="F78">
+        <v>100</v>
+      </c>
+      <c r="G78" t="s">
+        <v>23</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78" t="s">
+        <v>17</v>
+      </c>
+      <c r="J78">
+        <v>100</v>
+      </c>
+      <c r="K78" t="s">
+        <v>17</v>
+      </c>
+      <c r="L78">
+        <v>100</v>
+      </c>
+      <c r="M78">
+        <v>400</v>
+      </c>
+      <c r="N78">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C79" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79">
+        <v>100</v>
+      </c>
+      <c r="E79" t="s">
+        <v>17</v>
+      </c>
+      <c r="F79">
+        <v>100</v>
+      </c>
+      <c r="G79" t="s">
+        <v>23</v>
+      </c>
+      <c r="H79">
+        <v>25</v>
+      </c>
+      <c r="I79" t="s">
+        <v>17</v>
+      </c>
+      <c r="J79">
+        <v>100</v>
+      </c>
+      <c r="K79" t="s">
+        <v>84</v>
+      </c>
+      <c r="L79">
+        <v>50</v>
+      </c>
+      <c r="M79">
+        <v>375</v>
+      </c>
+      <c r="N79">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C80" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80">
+        <v>100</v>
+      </c>
+      <c r="E80" t="s">
+        <v>18</v>
+      </c>
+      <c r="F80">
+        <v>100</v>
+      </c>
+      <c r="G80" t="s">
+        <v>18</v>
+      </c>
+      <c r="H80">
+        <v>100</v>
+      </c>
+      <c r="I80" t="s">
+        <v>17</v>
+      </c>
+      <c r="J80">
+        <v>100</v>
+      </c>
+      <c r="K80" t="s">
+        <v>18</v>
+      </c>
+      <c r="L80">
+        <v>100</v>
+      </c>
+      <c r="M80">
+        <v>500</v>
+      </c>
+      <c r="N80">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C81" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81">
+        <v>100</v>
+      </c>
+      <c r="E81" t="s">
+        <v>17</v>
+      </c>
+      <c r="F81">
+        <v>100</v>
+      </c>
+      <c r="G81" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81">
+        <v>100</v>
+      </c>
+      <c r="I81" t="s">
+        <v>17</v>
+      </c>
+      <c r="J81">
+        <v>100</v>
+      </c>
+      <c r="K81" t="s">
+        <v>35</v>
+      </c>
+      <c r="L81">
+        <v>100</v>
+      </c>
+      <c r="M81">
+        <v>500</v>
+      </c>
+      <c r="N81">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C82" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82">
+        <v>100</v>
+      </c>
+      <c r="E82" t="s">
+        <v>17</v>
+      </c>
+      <c r="F82">
+        <v>100</v>
+      </c>
+      <c r="G82" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82">
+        <v>100</v>
+      </c>
+      <c r="I82" t="s">
+        <v>17</v>
+      </c>
+      <c r="J82">
+        <v>100</v>
+      </c>
+      <c r="K82" t="s">
+        <v>17</v>
+      </c>
+      <c r="L82">
+        <v>100</v>
+      </c>
+      <c r="M82">
+        <v>500</v>
+      </c>
+      <c r="N82">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C83" t="s">
+        <v>65</v>
+      </c>
+      <c r="D83">
+        <v>100</v>
+      </c>
+      <c r="E83" t="s">
+        <v>65</v>
+      </c>
+      <c r="F83">
+        <v>100</v>
+      </c>
+      <c r="G83" t="s">
+        <v>16</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83" t="s">
+        <v>23</v>
+      </c>
+      <c r="J83">
+        <v>20</v>
+      </c>
+      <c r="K83" t="s">
+        <v>16</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>220</v>
+      </c>
+      <c r="N83">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C84" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84">
+        <v>100</v>
+      </c>
+      <c r="E84" t="s">
+        <v>17</v>
+      </c>
+      <c r="F84">
+        <v>100</v>
+      </c>
+      <c r="G84" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84">
+        <v>100</v>
+      </c>
+      <c r="I84" t="s">
+        <v>17</v>
+      </c>
+      <c r="J84">
+        <v>100</v>
+      </c>
+      <c r="K84" t="s">
+        <v>22</v>
+      </c>
+      <c r="L84">
+        <v>100</v>
+      </c>
+      <c r="M84">
+        <v>500</v>
+      </c>
+      <c r="N84">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C85" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85">
+        <v>100</v>
+      </c>
+      <c r="E85" t="s">
+        <v>17</v>
+      </c>
+      <c r="F85">
+        <v>100</v>
+      </c>
+      <c r="G85" t="s">
+        <v>23</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85" t="s">
+        <v>18</v>
+      </c>
+      <c r="J85">
+        <v>100</v>
+      </c>
+      <c r="K85" t="s">
+        <v>47</v>
+      </c>
+      <c r="L85">
+        <v>50</v>
+      </c>
+      <c r="M85">
+        <v>350</v>
+      </c>
+      <c r="N85">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C86" t="s">
+        <v>47</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86" t="s">
+        <v>16</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86" t="s">
+        <v>23</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86" t="s">
+        <v>24</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C87" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87">
+        <v>100</v>
+      </c>
+      <c r="E87" t="s">
+        <v>17</v>
+      </c>
+      <c r="F87">
+        <v>100</v>
+      </c>
+      <c r="G87" t="s">
+        <v>47</v>
+      </c>
+      <c r="H87">
+        <v>25</v>
+      </c>
+      <c r="I87" t="s">
+        <v>17</v>
+      </c>
+      <c r="J87">
+        <v>100</v>
+      </c>
+      <c r="K87" t="s">
+        <v>84</v>
+      </c>
+      <c r="L87">
+        <v>50</v>
+      </c>
+      <c r="M87">
+        <v>375</v>
+      </c>
+      <c r="N87">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C88" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88">
+        <v>100</v>
+      </c>
+      <c r="E88" t="s">
+        <v>17</v>
+      </c>
+      <c r="F88">
+        <v>100</v>
+      </c>
+      <c r="G88" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88">
+        <v>100</v>
+      </c>
+      <c r="I88" t="s">
+        <v>17</v>
+      </c>
+      <c r="J88">
+        <v>100</v>
+      </c>
+      <c r="K88" t="s">
+        <v>22</v>
+      </c>
+      <c r="L88">
+        <v>100</v>
+      </c>
+      <c r="M88">
+        <v>500</v>
+      </c>
+      <c r="N88">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C89" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89">
+        <v>100</v>
+      </c>
+      <c r="E89" t="s">
+        <v>18</v>
+      </c>
+      <c r="F89">
+        <v>100</v>
+      </c>
+      <c r="G89" t="s">
+        <v>24</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89" t="s">
+        <v>17</v>
+      </c>
+      <c r="J89">
+        <v>100</v>
+      </c>
+      <c r="K89" t="s">
+        <v>17</v>
+      </c>
+      <c r="L89">
+        <v>100</v>
+      </c>
+      <c r="M89">
+        <v>400</v>
+      </c>
+      <c r="N89">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C90" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90">
+        <v>100</v>
+      </c>
+      <c r="E90" t="s">
+        <v>17</v>
+      </c>
+      <c r="F90">
+        <v>100</v>
+      </c>
+      <c r="G90" t="s">
+        <v>55</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90" t="s">
+        <v>17</v>
+      </c>
+      <c r="J90">
+        <v>100</v>
+      </c>
+      <c r="K90" t="s">
+        <v>1657</v>
+      </c>
+      <c r="L90">
+        <v>50</v>
+      </c>
+      <c r="M90">
+        <v>350</v>
+      </c>
+      <c r="N90">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C91" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91">
+        <v>100</v>
+      </c>
+      <c r="E91" t="s">
+        <v>24</v>
+      </c>
+      <c r="F91">
+        <v>40</v>
+      </c>
+      <c r="G91" t="s">
+        <v>16</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91" t="s">
+        <v>47</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91" t="s">
+        <v>16</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>140</v>
+      </c>
+      <c r="N91">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C92" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92">
+        <v>100</v>
+      </c>
+      <c r="E92" t="s">
+        <v>17</v>
+      </c>
+      <c r="F92">
+        <v>100</v>
+      </c>
+      <c r="G92" t="s">
+        <v>23</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92" t="s">
+        <v>18</v>
+      </c>
+      <c r="J92">
+        <v>100</v>
+      </c>
+      <c r="K92" t="s">
+        <v>18</v>
+      </c>
+      <c r="L92">
+        <v>100</v>
+      </c>
+      <c r="M92">
+        <v>400</v>
+      </c>
+      <c r="N92">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C93" t="s">
+        <v>17</v>
+      </c>
+      <c r="D93">
+        <v>100</v>
+      </c>
+      <c r="E93" t="s">
+        <v>18</v>
+      </c>
+      <c r="F93">
+        <v>100</v>
+      </c>
+      <c r="G93" t="s">
+        <v>18</v>
+      </c>
+      <c r="H93">
+        <v>100</v>
+      </c>
+      <c r="I93" t="s">
+        <v>17</v>
+      </c>
+      <c r="J93">
+        <v>100</v>
+      </c>
+      <c r="K93" t="s">
+        <v>17</v>
+      </c>
+      <c r="L93">
+        <v>100</v>
+      </c>
+      <c r="M93">
+        <v>500</v>
+      </c>
+      <c r="N93">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C94" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94">
+        <v>100</v>
+      </c>
+      <c r="E94" t="s">
+        <v>17</v>
+      </c>
+      <c r="F94">
+        <v>100</v>
+      </c>
+      <c r="G94" t="s">
+        <v>24</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94" t="s">
+        <v>18</v>
+      </c>
+      <c r="J94">
+        <v>100</v>
+      </c>
+      <c r="K94" t="s">
+        <v>24</v>
+      </c>
+      <c r="L94">
+        <v>50</v>
+      </c>
+      <c r="M94">
+        <v>350</v>
+      </c>
+      <c r="N94">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C95" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95">
+        <v>100</v>
+      </c>
+      <c r="E95" t="s">
+        <v>17</v>
+      </c>
+      <c r="F95">
+        <v>100</v>
+      </c>
+      <c r="G95" t="s">
+        <v>18</v>
+      </c>
+      <c r="H95">
+        <v>100</v>
+      </c>
+      <c r="I95" t="s">
+        <v>17</v>
+      </c>
+      <c r="J95">
+        <v>100</v>
+      </c>
+      <c r="K95" t="s">
+        <v>19</v>
+      </c>
+      <c r="L95">
+        <v>100</v>
+      </c>
+      <c r="M95">
+        <v>500</v>
+      </c>
+      <c r="N95">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C96" t="s">
+        <v>17</v>
+      </c>
+      <c r="D96">
+        <v>100</v>
+      </c>
+      <c r="E96" t="s">
+        <v>24</v>
+      </c>
+      <c r="F96">
+        <v>80</v>
+      </c>
+      <c r="G96" t="s">
+        <v>23</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96" t="s">
+        <v>55</v>
+      </c>
+      <c r="J96">
+        <v>40</v>
+      </c>
+      <c r="K96" t="s">
+        <v>24</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>220</v>
+      </c>
+      <c r="N96">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C97" t="s">
+        <v>17</v>
+      </c>
+      <c r="D97">
+        <v>100</v>
+      </c>
+      <c r="E97" t="s">
+        <v>17</v>
+      </c>
+      <c r="F97">
+        <v>100</v>
+      </c>
+      <c r="G97" t="s">
+        <v>24</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97" t="s">
+        <v>56</v>
+      </c>
+      <c r="J97">
+        <v>20</v>
+      </c>
+      <c r="K97" t="s">
+        <v>47</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>220</v>
+      </c>
+      <c r="N97">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C98" t="s">
+        <v>18</v>
+      </c>
+      <c r="D98">
+        <v>100</v>
+      </c>
+      <c r="E98" t="s">
+        <v>17</v>
+      </c>
+      <c r="F98">
+        <v>100</v>
+      </c>
+      <c r="G98" t="s">
+        <v>309</v>
+      </c>
+      <c r="H98">
+        <v>25</v>
+      </c>
+      <c r="I98" t="s">
+        <v>17</v>
+      </c>
+      <c r="J98">
+        <v>100</v>
+      </c>
+      <c r="K98" t="s">
+        <v>17</v>
+      </c>
+      <c r="L98">
+        <v>100</v>
+      </c>
+      <c r="M98">
+        <v>425</v>
+      </c>
+      <c r="N98">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C99" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99">
+        <v>100</v>
+      </c>
+      <c r="E99" t="s">
+        <v>84</v>
+      </c>
+      <c r="F99">
+        <v>80</v>
+      </c>
+      <c r="G99" t="s">
+        <v>16</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99" t="s">
+        <v>17</v>
+      </c>
+      <c r="J99">
+        <v>100</v>
+      </c>
+      <c r="K99" t="s">
+        <v>24</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>280</v>
+      </c>
+      <c r="N99">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C100" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100">
+        <v>100</v>
+      </c>
+      <c r="E100" t="s">
+        <v>18</v>
+      </c>
+      <c r="F100">
+        <v>100</v>
+      </c>
+      <c r="G100" t="s">
+        <v>23</v>
+      </c>
+      <c r="H100">
+        <v>50</v>
+      </c>
+      <c r="I100" t="s">
+        <v>17</v>
+      </c>
+      <c r="J100">
+        <v>100</v>
+      </c>
+      <c r="K100" t="s">
+        <v>17</v>
+      </c>
+      <c r="L100">
+        <v>100</v>
+      </c>
+      <c r="M100">
+        <v>450</v>
+      </c>
+      <c r="N100">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C101" t="s">
+        <v>17</v>
+      </c>
+      <c r="D101">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>18</v>
+      </c>
+      <c r="F101">
+        <v>100</v>
+      </c>
+      <c r="G101" t="s">
+        <v>18</v>
+      </c>
+      <c r="H101">
+        <v>100</v>
+      </c>
+      <c r="I101" t="s">
+        <v>17</v>
+      </c>
+      <c r="J101">
+        <v>100</v>
+      </c>
+      <c r="K101" t="s">
+        <v>24</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>400</v>
+      </c>
+      <c r="N101">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N102">
+        <f>AVERAGE(N2:N101)</f>
+        <v>85.495000000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N102"/>
+  <sheetViews>
     <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="N102" sqref="N102"/>
     </sheetView>
@@ -11248,7 +15724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N101"/>
   <sheetViews>
@@ -15670,7 +20146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N73"/>
   <sheetViews>
@@ -18860,7 +23336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N102"/>
   <sheetViews>
@@ -33250,11 +37726,329 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="7" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C2" s="2">
+        <v>100</v>
+      </c>
+      <c r="D2" s="2">
+        <v>100</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>220</v>
+      </c>
+      <c r="I2" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C3" s="2">
+        <v>100</v>
+      </c>
+      <c r="D3" s="2">
+        <v>100</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>220</v>
+      </c>
+      <c r="I3" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C4" s="2">
+        <v>100</v>
+      </c>
+      <c r="D4" s="2">
+        <v>100</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>220</v>
+      </c>
+      <c r="I4" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="C5" s="2">
+        <v>100</v>
+      </c>
+      <c r="D5" s="2">
+        <v>100</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>200</v>
+      </c>
+      <c r="I5" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C6" s="2">
+        <v>100</v>
+      </c>
+      <c r="D6" s="2">
+        <v>80</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>25</v>
+      </c>
+      <c r="H6" s="2">
+        <v>205</v>
+      </c>
+      <c r="I6" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C7" s="2">
+        <v>100</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>40</v>
+      </c>
+      <c r="G7" s="2">
+        <v>25</v>
+      </c>
+      <c r="H7" s="2">
+        <v>165</v>
+      </c>
+      <c r="I7" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C8" s="2">
+        <v>100</v>
+      </c>
+      <c r="D8" s="2">
+        <v>40</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>20</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>160</v>
+      </c>
+      <c r="I8" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C9" s="2">
+        <v>100</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>100</v>
+      </c>
+      <c r="I9" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>19040100159</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="C10" s="2">
+        <v>80</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>80</v>
+      </c>
+      <c r="I10" s="2">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B106" sqref="B106:B107"/>
+      <selection pane="bottomLeft" activeCell="H93" sqref="H93:H101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -37768,7 +42562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N102"/>
   <sheetViews>
@@ -42238,7 +47032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N42"/>
   <sheetViews>
@@ -44064,7 +48858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N26"/>
   <sheetViews>
@@ -45184,4470 +49978,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N102"/>
-  <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="N102" sqref="N102"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2">
-        <v>100</v>
-      </c>
-      <c r="K2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2">
-        <v>50</v>
-      </c>
-      <c r="M2">
-        <v>350</v>
-      </c>
-      <c r="N2">
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3">
-        <v>100</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3">
-        <v>100</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3">
-        <v>100</v>
-      </c>
-      <c r="K3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3">
-        <v>100</v>
-      </c>
-      <c r="M3">
-        <v>500</v>
-      </c>
-      <c r="N3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-      <c r="E4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4">
-        <v>100</v>
-      </c>
-      <c r="G4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4">
-        <v>100</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4">
-        <v>100</v>
-      </c>
-      <c r="K4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4">
-        <v>100</v>
-      </c>
-      <c r="M4">
-        <v>500</v>
-      </c>
-      <c r="N4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5">
-        <v>100</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5">
-        <v>100</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5">
-        <v>100</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5">
-        <v>100</v>
-      </c>
-      <c r="K5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5">
-        <v>100</v>
-      </c>
-      <c r="M5">
-        <v>500</v>
-      </c>
-      <c r="N5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6">
-        <v>100</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6">
-        <v>100</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6">
-        <v>100</v>
-      </c>
-      <c r="I6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6">
-        <v>100</v>
-      </c>
-      <c r="K6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6">
-        <v>100</v>
-      </c>
-      <c r="M6">
-        <v>500</v>
-      </c>
-      <c r="N6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7">
-        <v>100</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7">
-        <v>100</v>
-      </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7">
-        <v>100</v>
-      </c>
-      <c r="K7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L7">
-        <v>100</v>
-      </c>
-      <c r="M7">
-        <v>400</v>
-      </c>
-      <c r="N7">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8">
-        <v>100</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8">
-        <v>100</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8">
-        <v>100</v>
-      </c>
-      <c r="I8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8">
-        <v>100</v>
-      </c>
-      <c r="K8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8">
-        <v>100</v>
-      </c>
-      <c r="M8">
-        <v>500</v>
-      </c>
-      <c r="N8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9">
-        <v>100</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9">
-        <v>100</v>
-      </c>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9">
-        <v>100</v>
-      </c>
-      <c r="K9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9">
-        <v>100</v>
-      </c>
-      <c r="M9">
-        <v>400</v>
-      </c>
-      <c r="N9">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10">
-        <v>100</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10">
-        <v>100</v>
-      </c>
-      <c r="G10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10">
-        <v>100</v>
-      </c>
-      <c r="I10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10">
-        <v>100</v>
-      </c>
-      <c r="K10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10">
-        <v>100</v>
-      </c>
-      <c r="M10">
-        <v>500</v>
-      </c>
-      <c r="N10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>163</v>
-      </c>
-      <c r="B11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11">
-        <v>100</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11">
-        <v>100</v>
-      </c>
-      <c r="G11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11">
-        <v>100</v>
-      </c>
-      <c r="K11" t="s">
-        <v>165</v>
-      </c>
-      <c r="L11">
-        <v>50</v>
-      </c>
-      <c r="M11">
-        <v>350</v>
-      </c>
-      <c r="N11">
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>172</v>
-      </c>
-      <c r="B12" t="s">
-        <v>173</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12">
-        <v>100</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12">
-        <v>100</v>
-      </c>
-      <c r="G12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12">
-        <v>100</v>
-      </c>
-      <c r="I12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12">
-        <v>100</v>
-      </c>
-      <c r="K12" t="s">
-        <v>65</v>
-      </c>
-      <c r="L12">
-        <v>100</v>
-      </c>
-      <c r="M12">
-        <v>500</v>
-      </c>
-      <c r="N12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>182</v>
-      </c>
-      <c r="B13" t="s">
-        <v>183</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13">
-        <v>100</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13">
-        <v>100</v>
-      </c>
-      <c r="G13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13">
-        <v>100</v>
-      </c>
-      <c r="K13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L13">
-        <v>50</v>
-      </c>
-      <c r="M13">
-        <v>350</v>
-      </c>
-      <c r="N13">
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>199</v>
-      </c>
-      <c r="B14" t="s">
-        <v>200</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14">
-        <v>100</v>
-      </c>
-      <c r="E14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14">
-        <v>100</v>
-      </c>
-      <c r="G14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14">
-        <v>25</v>
-      </c>
-      <c r="I14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14">
-        <v>100</v>
-      </c>
-      <c r="K14" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14">
-        <v>100</v>
-      </c>
-      <c r="M14">
-        <v>425</v>
-      </c>
-      <c r="N14">
-        <v>92.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>237</v>
-      </c>
-      <c r="B15" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15">
-        <v>80</v>
-      </c>
-      <c r="E15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15">
-        <v>20</v>
-      </c>
-      <c r="K15" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>100</v>
-      </c>
-      <c r="N15">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>295</v>
-      </c>
-      <c r="B16" t="s">
-        <v>296</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16">
-        <v>100</v>
-      </c>
-      <c r="E16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16">
-        <v>100</v>
-      </c>
-      <c r="G16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16">
-        <v>100</v>
-      </c>
-      <c r="K16" t="s">
-        <v>47</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>300</v>
-      </c>
-      <c r="N16">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>365</v>
-      </c>
-      <c r="B17" t="s">
-        <v>366</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17">
-        <v>100</v>
-      </c>
-      <c r="E17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17">
-        <v>100</v>
-      </c>
-      <c r="G17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17">
-        <v>100</v>
-      </c>
-      <c r="K17" t="s">
-        <v>47</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>300</v>
-      </c>
-      <c r="N17">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>367</v>
-      </c>
-      <c r="B18" t="s">
-        <v>368</v>
-      </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18">
-        <v>100</v>
-      </c>
-      <c r="E18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18">
-        <v>80</v>
-      </c>
-      <c r="G18" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18">
-        <v>100</v>
-      </c>
-      <c r="K18" t="s">
-        <v>47</v>
-      </c>
-      <c r="L18">
-        <v>50</v>
-      </c>
-      <c r="M18">
-        <v>330</v>
-      </c>
-      <c r="N18">
-        <v>78.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>369</v>
-      </c>
-      <c r="B19" t="s">
-        <v>370</v>
-      </c>
-      <c r="C19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19">
-        <v>100</v>
-      </c>
-      <c r="E19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19">
-        <v>100</v>
-      </c>
-      <c r="G19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19">
-        <v>100</v>
-      </c>
-      <c r="I19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19">
-        <v>100</v>
-      </c>
-      <c r="K19" t="s">
-        <v>17</v>
-      </c>
-      <c r="L19">
-        <v>100</v>
-      </c>
-      <c r="M19">
-        <v>500</v>
-      </c>
-      <c r="N19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>419</v>
-      </c>
-      <c r="B20" t="s">
-        <v>420</v>
-      </c>
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20">
-        <v>100</v>
-      </c>
-      <c r="E20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20">
-        <v>100</v>
-      </c>
-      <c r="G20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20">
-        <v>100</v>
-      </c>
-      <c r="K20" t="s">
-        <v>22</v>
-      </c>
-      <c r="L20">
-        <v>100</v>
-      </c>
-      <c r="M20">
-        <v>400</v>
-      </c>
-      <c r="N20">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>443</v>
-      </c>
-      <c r="B21" t="s">
-        <v>444</v>
-      </c>
-      <c r="C21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21">
-        <v>100</v>
-      </c>
-      <c r="E21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21">
-        <v>100</v>
-      </c>
-      <c r="G21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21">
-        <v>100</v>
-      </c>
-      <c r="K21" t="s">
-        <v>40</v>
-      </c>
-      <c r="L21">
-        <v>50</v>
-      </c>
-      <c r="M21">
-        <v>350</v>
-      </c>
-      <c r="N21">
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>498</v>
-      </c>
-      <c r="B22" t="s">
-        <v>499</v>
-      </c>
-      <c r="C22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22">
-        <v>100</v>
-      </c>
-      <c r="E22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22">
-        <v>100</v>
-      </c>
-      <c r="G22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22">
-        <v>100</v>
-      </c>
-      <c r="I22" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22">
-        <v>100</v>
-      </c>
-      <c r="K22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L22">
-        <v>100</v>
-      </c>
-      <c r="M22">
-        <v>500</v>
-      </c>
-      <c r="N22">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>507</v>
-      </c>
-      <c r="B23" t="s">
-        <v>508</v>
-      </c>
-      <c r="C23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23">
-        <v>100</v>
-      </c>
-      <c r="E23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23">
-        <v>100</v>
-      </c>
-      <c r="G23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23">
-        <v>100</v>
-      </c>
-      <c r="I23" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23">
-        <v>100</v>
-      </c>
-      <c r="K23" t="s">
-        <v>65</v>
-      </c>
-      <c r="L23">
-        <v>100</v>
-      </c>
-      <c r="M23">
-        <v>500</v>
-      </c>
-      <c r="N23">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>509</v>
-      </c>
-      <c r="B24" t="s">
-        <v>510</v>
-      </c>
-      <c r="C24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24">
-        <v>100</v>
-      </c>
-      <c r="E24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24">
-        <v>100</v>
-      </c>
-      <c r="G24" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24">
-        <v>25</v>
-      </c>
-      <c r="I24" t="s">
-        <v>47</v>
-      </c>
-      <c r="J24">
-        <v>40</v>
-      </c>
-      <c r="K24" t="s">
-        <v>23</v>
-      </c>
-      <c r="L24">
-        <v>50</v>
-      </c>
-      <c r="M24">
-        <v>315</v>
-      </c>
-      <c r="N24">
-        <v>73.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>557</v>
-      </c>
-      <c r="B25" t="s">
-        <v>558</v>
-      </c>
-      <c r="C25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25">
-        <v>100</v>
-      </c>
-      <c r="E25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25">
-        <v>100</v>
-      </c>
-      <c r="G25" t="s">
-        <v>64</v>
-      </c>
-      <c r="H25">
-        <v>50</v>
-      </c>
-      <c r="I25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25">
-        <v>100</v>
-      </c>
-      <c r="K25" t="s">
-        <v>19</v>
-      </c>
-      <c r="L25">
-        <v>100</v>
-      </c>
-      <c r="M25">
-        <v>450</v>
-      </c>
-      <c r="N25">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>559</v>
-      </c>
-      <c r="B26" t="s">
-        <v>560</v>
-      </c>
-      <c r="C26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26">
-        <v>100</v>
-      </c>
-      <c r="E26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26">
-        <v>100</v>
-      </c>
-      <c r="G26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26">
-        <v>100</v>
-      </c>
-      <c r="K26" t="s">
-        <v>65</v>
-      </c>
-      <c r="L26">
-        <v>100</v>
-      </c>
-      <c r="M26">
-        <v>400</v>
-      </c>
-      <c r="N26">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>561</v>
-      </c>
-      <c r="B27" t="s">
-        <v>562</v>
-      </c>
-      <c r="C27" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27">
-        <v>100</v>
-      </c>
-      <c r="E27" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27">
-        <v>100</v>
-      </c>
-      <c r="G27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27">
-        <v>100</v>
-      </c>
-      <c r="I27" t="s">
-        <v>18</v>
-      </c>
-      <c r="J27">
-        <v>100</v>
-      </c>
-      <c r="K27" t="s">
-        <v>34</v>
-      </c>
-      <c r="L27">
-        <v>100</v>
-      </c>
-      <c r="M27">
-        <v>500</v>
-      </c>
-      <c r="N27">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>594</v>
-      </c>
-      <c r="B28" t="s">
-        <v>595</v>
-      </c>
-      <c r="C28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28">
-        <v>100</v>
-      </c>
-      <c r="E28" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28">
-        <v>100</v>
-      </c>
-      <c r="G28" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28">
-        <v>100</v>
-      </c>
-      <c r="I28" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28">
-        <v>100</v>
-      </c>
-      <c r="K28" t="s">
-        <v>17</v>
-      </c>
-      <c r="L28">
-        <v>100</v>
-      </c>
-      <c r="M28">
-        <v>500</v>
-      </c>
-      <c r="N28">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>600</v>
-      </c>
-      <c r="B29" t="s">
-        <v>601</v>
-      </c>
-      <c r="C29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29">
-        <v>100</v>
-      </c>
-      <c r="E29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29">
-        <v>100</v>
-      </c>
-      <c r="G29" t="s">
-        <v>64</v>
-      </c>
-      <c r="H29">
-        <v>50</v>
-      </c>
-      <c r="I29" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29">
-        <v>100</v>
-      </c>
-      <c r="K29" t="s">
-        <v>35</v>
-      </c>
-      <c r="L29">
-        <v>100</v>
-      </c>
-      <c r="M29">
-        <v>450</v>
-      </c>
-      <c r="N29">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>618</v>
-      </c>
-      <c r="B30" t="s">
-        <v>619</v>
-      </c>
-      <c r="C30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30">
-        <v>100</v>
-      </c>
-      <c r="E30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30">
-        <v>100</v>
-      </c>
-      <c r="G30" t="s">
-        <v>18</v>
-      </c>
-      <c r="H30">
-        <v>100</v>
-      </c>
-      <c r="I30" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30">
-        <v>100</v>
-      </c>
-      <c r="K30" t="s">
-        <v>18</v>
-      </c>
-      <c r="L30">
-        <v>100</v>
-      </c>
-      <c r="M30">
-        <v>500</v>
-      </c>
-      <c r="N30">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>774</v>
-      </c>
-      <c r="B31" t="s">
-        <v>775</v>
-      </c>
-      <c r="C31" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31">
-        <v>100</v>
-      </c>
-      <c r="E31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31">
-        <v>100</v>
-      </c>
-      <c r="G31" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31" t="s">
-        <v>17</v>
-      </c>
-      <c r="J31">
-        <v>100</v>
-      </c>
-      <c r="K31" t="s">
-        <v>23</v>
-      </c>
-      <c r="L31">
-        <v>50</v>
-      </c>
-      <c r="M31">
-        <v>350</v>
-      </c>
-      <c r="N31">
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>793</v>
-      </c>
-      <c r="B32" t="s">
-        <v>794</v>
-      </c>
-      <c r="C32" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32">
-        <v>100</v>
-      </c>
-      <c r="E32" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32">
-        <v>100</v>
-      </c>
-      <c r="G32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32">
-        <v>100</v>
-      </c>
-      <c r="I32" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32">
-        <v>100</v>
-      </c>
-      <c r="K32" t="s">
-        <v>64</v>
-      </c>
-      <c r="L32">
-        <v>75</v>
-      </c>
-      <c r="M32">
-        <v>475</v>
-      </c>
-      <c r="N32">
-        <v>97.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>822</v>
-      </c>
-      <c r="B33" t="s">
-        <v>823</v>
-      </c>
-      <c r="C33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33">
-        <v>100</v>
-      </c>
-      <c r="E33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33">
-        <v>100</v>
-      </c>
-      <c r="G33" t="s">
-        <v>24</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33" t="s">
-        <v>50</v>
-      </c>
-      <c r="J33">
-        <v>100</v>
-      </c>
-      <c r="K33" t="s">
-        <v>61</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>300</v>
-      </c>
-      <c r="N33">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>828</v>
-      </c>
-      <c r="B34" t="s">
-        <v>829</v>
-      </c>
-      <c r="C34" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34">
-        <v>100</v>
-      </c>
-      <c r="E34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34">
-        <v>100</v>
-      </c>
-      <c r="G34" t="s">
-        <v>16</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34" t="s">
-        <v>17</v>
-      </c>
-      <c r="J34">
-        <v>100</v>
-      </c>
-      <c r="K34" t="s">
-        <v>61</v>
-      </c>
-      <c r="L34">
-        <v>50</v>
-      </c>
-      <c r="M34">
-        <v>350</v>
-      </c>
-      <c r="N34">
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>830</v>
-      </c>
-      <c r="B35" t="s">
-        <v>831</v>
-      </c>
-      <c r="C35" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35">
-        <v>100</v>
-      </c>
-      <c r="E35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35">
-        <v>100</v>
-      </c>
-      <c r="G35" t="s">
-        <v>55</v>
-      </c>
-      <c r="H35">
-        <v>25</v>
-      </c>
-      <c r="I35" t="s">
-        <v>65</v>
-      </c>
-      <c r="J35">
-        <v>100</v>
-      </c>
-      <c r="K35" t="s">
-        <v>19</v>
-      </c>
-      <c r="L35">
-        <v>100</v>
-      </c>
-      <c r="M35">
-        <v>425</v>
-      </c>
-      <c r="N35">
-        <v>92.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>846</v>
-      </c>
-      <c r="B36" t="s">
-        <v>847</v>
-      </c>
-      <c r="C36" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36">
-        <v>100</v>
-      </c>
-      <c r="E36" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36">
-        <v>100</v>
-      </c>
-      <c r="G36" t="s">
-        <v>65</v>
-      </c>
-      <c r="H36">
-        <v>100</v>
-      </c>
-      <c r="I36" t="s">
-        <v>17</v>
-      </c>
-      <c r="J36">
-        <v>100</v>
-      </c>
-      <c r="K36" t="s">
-        <v>18</v>
-      </c>
-      <c r="L36">
-        <v>100</v>
-      </c>
-      <c r="M36">
-        <v>500</v>
-      </c>
-      <c r="N36">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>852</v>
-      </c>
-      <c r="B37" t="s">
-        <v>853</v>
-      </c>
-      <c r="C37" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37">
-        <v>100</v>
-      </c>
-      <c r="E37" t="s">
-        <v>40</v>
-      </c>
-      <c r="F37">
-        <v>60</v>
-      </c>
-      <c r="G37" t="s">
-        <v>24</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37" t="s">
-        <v>22</v>
-      </c>
-      <c r="J37">
-        <v>100</v>
-      </c>
-      <c r="K37" t="s">
-        <v>17</v>
-      </c>
-      <c r="L37">
-        <v>100</v>
-      </c>
-      <c r="M37">
-        <v>360</v>
-      </c>
-      <c r="N37">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>856</v>
-      </c>
-      <c r="B38" t="s">
-        <v>857</v>
-      </c>
-      <c r="C38" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38">
-        <v>100</v>
-      </c>
-      <c r="E38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38" t="s">
-        <v>16</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38" t="s">
-        <v>16</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38" t="s">
-        <v>24</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>100</v>
-      </c>
-      <c r="N38">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>896</v>
-      </c>
-      <c r="B39" t="s">
-        <v>897</v>
-      </c>
-      <c r="C39" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39">
-        <v>100</v>
-      </c>
-      <c r="E39" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39">
-        <v>100</v>
-      </c>
-      <c r="G39" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39">
-        <v>100</v>
-      </c>
-      <c r="I39" t="s">
-        <v>17</v>
-      </c>
-      <c r="J39">
-        <v>100</v>
-      </c>
-      <c r="K39" t="s">
-        <v>84</v>
-      </c>
-      <c r="L39">
-        <v>75</v>
-      </c>
-      <c r="M39">
-        <v>475</v>
-      </c>
-      <c r="N39">
-        <v>97.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>906</v>
-      </c>
-      <c r="B40" t="s">
-        <v>907</v>
-      </c>
-      <c r="C40" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40">
-        <v>100</v>
-      </c>
-      <c r="E40" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40">
-        <v>100</v>
-      </c>
-      <c r="G40" t="s">
-        <v>16</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40" t="s">
-        <v>18</v>
-      </c>
-      <c r="J40">
-        <v>100</v>
-      </c>
-      <c r="K40" t="s">
-        <v>23</v>
-      </c>
-      <c r="L40">
-        <v>50</v>
-      </c>
-      <c r="M40">
-        <v>350</v>
-      </c>
-      <c r="N40">
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>922</v>
-      </c>
-      <c r="B41" t="s">
-        <v>923</v>
-      </c>
-      <c r="C41" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41">
-        <v>100</v>
-      </c>
-      <c r="E41" t="s">
-        <v>19</v>
-      </c>
-      <c r="F41">
-        <v>100</v>
-      </c>
-      <c r="G41" t="s">
-        <v>24</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41" t="s">
-        <v>84</v>
-      </c>
-      <c r="J41">
-        <v>20</v>
-      </c>
-      <c r="K41" t="s">
-        <v>47</v>
-      </c>
-      <c r="L41">
-        <v>25</v>
-      </c>
-      <c r="M41">
-        <v>245</v>
-      </c>
-      <c r="N41">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>924</v>
-      </c>
-      <c r="B42" t="s">
-        <v>925</v>
-      </c>
-      <c r="C42" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42">
-        <v>100</v>
-      </c>
-      <c r="E42" t="s">
-        <v>17</v>
-      </c>
-      <c r="F42">
-        <v>100</v>
-      </c>
-      <c r="G42" t="s">
-        <v>23</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42" t="s">
-        <v>17</v>
-      </c>
-      <c r="J42">
-        <v>100</v>
-      </c>
-      <c r="K42" t="s">
-        <v>56</v>
-      </c>
-      <c r="L42">
-        <v>50</v>
-      </c>
-      <c r="M42">
-        <v>350</v>
-      </c>
-      <c r="N42">
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>935</v>
-      </c>
-      <c r="B43" t="s">
-        <v>936</v>
-      </c>
-      <c r="C43" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43">
-        <v>100</v>
-      </c>
-      <c r="E43" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43">
-        <v>100</v>
-      </c>
-      <c r="G43" t="s">
-        <v>47</v>
-      </c>
-      <c r="H43">
-        <v>50</v>
-      </c>
-      <c r="I43" t="s">
-        <v>17</v>
-      </c>
-      <c r="J43">
-        <v>100</v>
-      </c>
-      <c r="K43" t="s">
-        <v>23</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>350</v>
-      </c>
-      <c r="N43">
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>952</v>
-      </c>
-      <c r="B44" t="s">
-        <v>953</v>
-      </c>
-      <c r="C44" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44">
-        <v>100</v>
-      </c>
-      <c r="E44" t="s">
-        <v>17</v>
-      </c>
-      <c r="F44">
-        <v>100</v>
-      </c>
-      <c r="G44" t="s">
-        <v>18</v>
-      </c>
-      <c r="H44">
-        <v>100</v>
-      </c>
-      <c r="I44" t="s">
-        <v>17</v>
-      </c>
-      <c r="J44">
-        <v>100</v>
-      </c>
-      <c r="K44" t="s">
-        <v>18</v>
-      </c>
-      <c r="L44">
-        <v>100</v>
-      </c>
-      <c r="M44">
-        <v>500</v>
-      </c>
-      <c r="N44">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>954</v>
-      </c>
-      <c r="B45" t="s">
-        <v>955</v>
-      </c>
-      <c r="C45" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45">
-        <v>100</v>
-      </c>
-      <c r="E45" t="s">
-        <v>18</v>
-      </c>
-      <c r="F45">
-        <v>100</v>
-      </c>
-      <c r="G45" t="s">
-        <v>16</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45" t="s">
-        <v>17</v>
-      </c>
-      <c r="J45">
-        <v>100</v>
-      </c>
-      <c r="K45" t="s">
-        <v>47</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>300</v>
-      </c>
-      <c r="N45">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>966</v>
-      </c>
-      <c r="B46" t="s">
-        <v>967</v>
-      </c>
-      <c r="C46" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46">
-        <v>100</v>
-      </c>
-      <c r="E46" t="s">
-        <v>17</v>
-      </c>
-      <c r="F46">
-        <v>100</v>
-      </c>
-      <c r="G46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46">
-        <v>100</v>
-      </c>
-      <c r="I46" t="s">
-        <v>17</v>
-      </c>
-      <c r="J46">
-        <v>100</v>
-      </c>
-      <c r="K46" t="s">
-        <v>65</v>
-      </c>
-      <c r="L46">
-        <v>100</v>
-      </c>
-      <c r="M46">
-        <v>500</v>
-      </c>
-      <c r="N46">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>972</v>
-      </c>
-      <c r="B47" t="s">
-        <v>973</v>
-      </c>
-      <c r="C47" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47">
-        <v>100</v>
-      </c>
-      <c r="E47" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47">
-        <v>100</v>
-      </c>
-      <c r="G47" t="s">
-        <v>47</v>
-      </c>
-      <c r="H47">
-        <v>25</v>
-      </c>
-      <c r="I47" t="s">
-        <v>17</v>
-      </c>
-      <c r="J47">
-        <v>100</v>
-      </c>
-      <c r="K47" t="s">
-        <v>17</v>
-      </c>
-      <c r="L47">
-        <v>100</v>
-      </c>
-      <c r="M47">
-        <v>425</v>
-      </c>
-      <c r="N47">
-        <v>92.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>976</v>
-      </c>
-      <c r="B48" t="s">
-        <v>977</v>
-      </c>
-      <c r="C48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D48">
-        <v>100</v>
-      </c>
-      <c r="E48" t="s">
-        <v>24</v>
-      </c>
-      <c r="F48">
-        <v>80</v>
-      </c>
-      <c r="G48" t="s">
-        <v>16</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48" t="s">
-        <v>23</v>
-      </c>
-      <c r="J48">
-        <v>20</v>
-      </c>
-      <c r="K48" t="s">
-        <v>16</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>200</v>
-      </c>
-      <c r="N48">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>978</v>
-      </c>
-      <c r="B49" t="s">
-        <v>979</v>
-      </c>
-      <c r="C49" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49">
-        <v>100</v>
-      </c>
-      <c r="E49" t="s">
-        <v>18</v>
-      </c>
-      <c r="F49">
-        <v>100</v>
-      </c>
-      <c r="G49" t="s">
-        <v>24</v>
-      </c>
-      <c r="H49">
-        <v>25</v>
-      </c>
-      <c r="I49" t="s">
-        <v>17</v>
-      </c>
-      <c r="J49">
-        <v>100</v>
-      </c>
-      <c r="K49" t="s">
-        <v>56</v>
-      </c>
-      <c r="L49">
-        <v>50</v>
-      </c>
-      <c r="M49">
-        <v>375</v>
-      </c>
-      <c r="N49">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>988</v>
-      </c>
-      <c r="B50" t="s">
-        <v>989</v>
-      </c>
-      <c r="C50" t="s">
-        <v>18</v>
-      </c>
-      <c r="D50">
-        <v>100</v>
-      </c>
-      <c r="E50" t="s">
-        <v>65</v>
-      </c>
-      <c r="F50">
-        <v>100</v>
-      </c>
-      <c r="G50" t="s">
-        <v>65</v>
-      </c>
-      <c r="H50">
-        <v>100</v>
-      </c>
-      <c r="I50" t="s">
-        <v>22</v>
-      </c>
-      <c r="J50">
-        <v>100</v>
-      </c>
-      <c r="K50" t="s">
-        <v>18</v>
-      </c>
-      <c r="L50">
-        <v>100</v>
-      </c>
-      <c r="M50">
-        <v>500</v>
-      </c>
-      <c r="N50">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>990</v>
-      </c>
-      <c r="B51" t="s">
-        <v>991</v>
-      </c>
-      <c r="C51" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51">
-        <v>100</v>
-      </c>
-      <c r="E51" t="s">
-        <v>23</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51" t="s">
-        <v>47</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51" t="s">
-        <v>23</v>
-      </c>
-      <c r="J51">
-        <v>20</v>
-      </c>
-      <c r="K51" t="s">
-        <v>47</v>
-      </c>
-      <c r="L51">
-        <v>50</v>
-      </c>
-      <c r="M51">
-        <v>170</v>
-      </c>
-      <c r="N51">
-        <v>46.5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>992</v>
-      </c>
-      <c r="B52" t="s">
-        <v>993</v>
-      </c>
-      <c r="C52" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52">
-        <v>100</v>
-      </c>
-      <c r="E52" t="s">
-        <v>17</v>
-      </c>
-      <c r="F52">
-        <v>100</v>
-      </c>
-      <c r="G52" t="s">
-        <v>17</v>
-      </c>
-      <c r="H52">
-        <v>100</v>
-      </c>
-      <c r="I52" t="s">
-        <v>18</v>
-      </c>
-      <c r="J52">
-        <v>100</v>
-      </c>
-      <c r="K52" t="s">
-        <v>17</v>
-      </c>
-      <c r="L52">
-        <v>100</v>
-      </c>
-      <c r="M52">
-        <v>500</v>
-      </c>
-      <c r="N52">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>994</v>
-      </c>
-      <c r="B53" t="s">
-        <v>995</v>
-      </c>
-      <c r="C53" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53">
-        <v>100</v>
-      </c>
-      <c r="E53" t="s">
-        <v>17</v>
-      </c>
-      <c r="F53">
-        <v>100</v>
-      </c>
-      <c r="G53" t="s">
-        <v>16</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53" t="s">
-        <v>17</v>
-      </c>
-      <c r="J53">
-        <v>100</v>
-      </c>
-      <c r="K53" t="s">
-        <v>19</v>
-      </c>
-      <c r="L53">
-        <v>100</v>
-      </c>
-      <c r="M53">
-        <v>400</v>
-      </c>
-      <c r="N53">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C54" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54">
-        <v>100</v>
-      </c>
-      <c r="E54" t="s">
-        <v>17</v>
-      </c>
-      <c r="F54">
-        <v>100</v>
-      </c>
-      <c r="G54" t="s">
-        <v>17</v>
-      </c>
-      <c r="H54">
-        <v>100</v>
-      </c>
-      <c r="I54" t="s">
-        <v>17</v>
-      </c>
-      <c r="J54">
-        <v>100</v>
-      </c>
-      <c r="K54" t="s">
-        <v>22</v>
-      </c>
-      <c r="L54">
-        <v>100</v>
-      </c>
-      <c r="M54">
-        <v>500</v>
-      </c>
-      <c r="N54">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C55" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55">
-        <v>100</v>
-      </c>
-      <c r="E55" t="s">
-        <v>17</v>
-      </c>
-      <c r="F55">
-        <v>100</v>
-      </c>
-      <c r="G55" t="s">
-        <v>47</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55" t="s">
-        <v>18</v>
-      </c>
-      <c r="J55">
-        <v>100</v>
-      </c>
-      <c r="K55" t="s">
-        <v>17</v>
-      </c>
-      <c r="L55">
-        <v>100</v>
-      </c>
-      <c r="M55">
-        <v>400</v>
-      </c>
-      <c r="N55">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C56" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56">
-        <v>100</v>
-      </c>
-      <c r="E56" t="s">
-        <v>17</v>
-      </c>
-      <c r="F56">
-        <v>100</v>
-      </c>
-      <c r="G56" t="s">
-        <v>17</v>
-      </c>
-      <c r="H56">
-        <v>100</v>
-      </c>
-      <c r="I56" t="s">
-        <v>17</v>
-      </c>
-      <c r="J56">
-        <v>100</v>
-      </c>
-      <c r="K56" t="s">
-        <v>22</v>
-      </c>
-      <c r="L56">
-        <v>100</v>
-      </c>
-      <c r="M56">
-        <v>500</v>
-      </c>
-      <c r="N56">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C57" t="s">
-        <v>17</v>
-      </c>
-      <c r="D57">
-        <v>100</v>
-      </c>
-      <c r="E57" t="s">
-        <v>22</v>
-      </c>
-      <c r="F57">
-        <v>100</v>
-      </c>
-      <c r="G57" t="s">
-        <v>16</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57" t="s">
-        <v>17</v>
-      </c>
-      <c r="J57">
-        <v>100</v>
-      </c>
-      <c r="K57" t="s">
-        <v>16</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>300</v>
-      </c>
-      <c r="N57">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C58" t="s">
-        <v>17</v>
-      </c>
-      <c r="D58">
-        <v>100</v>
-      </c>
-      <c r="E58" t="s">
-        <v>17</v>
-      </c>
-      <c r="F58">
-        <v>100</v>
-      </c>
-      <c r="G58" t="s">
-        <v>22</v>
-      </c>
-      <c r="H58">
-        <v>100</v>
-      </c>
-      <c r="I58" t="s">
-        <v>18</v>
-      </c>
-      <c r="J58">
-        <v>100</v>
-      </c>
-      <c r="K58" t="s">
-        <v>65</v>
-      </c>
-      <c r="L58">
-        <v>100</v>
-      </c>
-      <c r="M58">
-        <v>500</v>
-      </c>
-      <c r="N58">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C59" t="s">
-        <v>17</v>
-      </c>
-      <c r="D59">
-        <v>100</v>
-      </c>
-      <c r="E59" t="s">
-        <v>18</v>
-      </c>
-      <c r="F59">
-        <v>100</v>
-      </c>
-      <c r="G59" t="s">
-        <v>16</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59" t="s">
-        <v>17</v>
-      </c>
-      <c r="J59">
-        <v>100</v>
-      </c>
-      <c r="K59" t="s">
-        <v>18</v>
-      </c>
-      <c r="L59">
-        <v>100</v>
-      </c>
-      <c r="M59">
-        <v>400</v>
-      </c>
-      <c r="N59">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C60" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60">
-        <v>100</v>
-      </c>
-      <c r="E60" t="s">
-        <v>34</v>
-      </c>
-      <c r="F60">
-        <v>100</v>
-      </c>
-      <c r="G60" t="s">
-        <v>16</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60" t="s">
-        <v>84</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60" t="s">
-        <v>18</v>
-      </c>
-      <c r="L60">
-        <v>100</v>
-      </c>
-      <c r="M60">
-        <v>300</v>
-      </c>
-      <c r="N60">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B61" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C61" t="s">
-        <v>17</v>
-      </c>
-      <c r="D61">
-        <v>100</v>
-      </c>
-      <c r="E61" t="s">
-        <v>23</v>
-      </c>
-      <c r="F61">
-        <v>60</v>
-      </c>
-      <c r="G61" t="s">
-        <v>16</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61" t="s">
-        <v>17</v>
-      </c>
-      <c r="J61">
-        <v>100</v>
-      </c>
-      <c r="K61" t="s">
-        <v>23</v>
-      </c>
-      <c r="L61">
-        <v>50</v>
-      </c>
-      <c r="M61">
-        <v>310</v>
-      </c>
-      <c r="N61">
-        <v>74.5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B62" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D62">
-        <v>100</v>
-      </c>
-      <c r="E62" t="s">
-        <v>17</v>
-      </c>
-      <c r="F62">
-        <v>100</v>
-      </c>
-      <c r="G62" t="s">
-        <v>84</v>
-      </c>
-      <c r="H62">
-        <v>50</v>
-      </c>
-      <c r="I62" t="s">
-        <v>17</v>
-      </c>
-      <c r="J62">
-        <v>100</v>
-      </c>
-      <c r="K62" t="s">
-        <v>40</v>
-      </c>
-      <c r="L62">
-        <v>50</v>
-      </c>
-      <c r="M62">
-        <v>400</v>
-      </c>
-      <c r="N62">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C63" t="s">
-        <v>17</v>
-      </c>
-      <c r="D63">
-        <v>100</v>
-      </c>
-      <c r="E63" t="s">
-        <v>17</v>
-      </c>
-      <c r="F63">
-        <v>100</v>
-      </c>
-      <c r="G63" t="s">
-        <v>16</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63" t="s">
-        <v>17</v>
-      </c>
-      <c r="J63">
-        <v>100</v>
-      </c>
-      <c r="K63" t="s">
-        <v>40</v>
-      </c>
-      <c r="L63">
-        <v>50</v>
-      </c>
-      <c r="M63">
-        <v>350</v>
-      </c>
-      <c r="N63">
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>1131</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C64" t="s">
-        <v>17</v>
-      </c>
-      <c r="D64">
-        <v>100</v>
-      </c>
-      <c r="E64" t="s">
-        <v>17</v>
-      </c>
-      <c r="F64">
-        <v>100</v>
-      </c>
-      <c r="G64" t="s">
-        <v>47</v>
-      </c>
-      <c r="H64">
-        <v>25</v>
-      </c>
-      <c r="I64" t="s">
-        <v>18</v>
-      </c>
-      <c r="J64">
-        <v>100</v>
-      </c>
-      <c r="K64" t="s">
-        <v>18</v>
-      </c>
-      <c r="L64">
-        <v>100</v>
-      </c>
-      <c r="M64">
-        <v>425</v>
-      </c>
-      <c r="N64">
-        <v>92.5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B65" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C65" t="s">
-        <v>65</v>
-      </c>
-      <c r="D65">
-        <v>100</v>
-      </c>
-      <c r="E65" t="s">
-        <v>17</v>
-      </c>
-      <c r="F65">
-        <v>100</v>
-      </c>
-      <c r="G65" t="s">
-        <v>16</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65" t="s">
-        <v>22</v>
-      </c>
-      <c r="J65">
-        <v>100</v>
-      </c>
-      <c r="K65" t="s">
-        <v>40</v>
-      </c>
-      <c r="L65">
-        <v>50</v>
-      </c>
-      <c r="M65">
-        <v>350</v>
-      </c>
-      <c r="N65">
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C66" t="s">
-        <v>17</v>
-      </c>
-      <c r="D66">
-        <v>100</v>
-      </c>
-      <c r="E66" t="s">
-        <v>17</v>
-      </c>
-      <c r="F66">
-        <v>100</v>
-      </c>
-      <c r="G66" t="s">
-        <v>65</v>
-      </c>
-      <c r="H66">
-        <v>100</v>
-      </c>
-      <c r="I66" t="s">
-        <v>17</v>
-      </c>
-      <c r="J66">
-        <v>100</v>
-      </c>
-      <c r="K66" t="s">
-        <v>55</v>
-      </c>
-      <c r="L66">
-        <v>50</v>
-      </c>
-      <c r="M66">
-        <v>450</v>
-      </c>
-      <c r="N66">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>1194</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1195</v>
-      </c>
-      <c r="C67" t="s">
-        <v>22</v>
-      </c>
-      <c r="D67">
-        <v>100</v>
-      </c>
-      <c r="E67" t="s">
-        <v>17</v>
-      </c>
-      <c r="F67">
-        <v>100</v>
-      </c>
-      <c r="G67" t="s">
-        <v>16</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67" t="s">
-        <v>17</v>
-      </c>
-      <c r="J67">
-        <v>100</v>
-      </c>
-      <c r="K67" t="s">
-        <v>56</v>
-      </c>
-      <c r="L67">
-        <v>50</v>
-      </c>
-      <c r="M67">
-        <v>350</v>
-      </c>
-      <c r="N67">
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B68" t="s">
-        <v>1203</v>
-      </c>
-      <c r="C68" t="s">
-        <v>17</v>
-      </c>
-      <c r="D68">
-        <v>100</v>
-      </c>
-      <c r="E68" t="s">
-        <v>17</v>
-      </c>
-      <c r="F68">
-        <v>100</v>
-      </c>
-      <c r="G68" t="s">
-        <v>16</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68" t="s">
-        <v>17</v>
-      </c>
-      <c r="J68">
-        <v>100</v>
-      </c>
-      <c r="K68" t="s">
-        <v>18</v>
-      </c>
-      <c r="L68">
-        <v>100</v>
-      </c>
-      <c r="M68">
-        <v>400</v>
-      </c>
-      <c r="N68">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>1208</v>
-      </c>
-      <c r="B69" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C69" t="s">
-        <v>17</v>
-      </c>
-      <c r="D69">
-        <v>100</v>
-      </c>
-      <c r="E69" t="s">
-        <v>17</v>
-      </c>
-      <c r="F69">
-        <v>100</v>
-      </c>
-      <c r="G69" t="s">
-        <v>16</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69" t="s">
-        <v>17</v>
-      </c>
-      <c r="J69">
-        <v>100</v>
-      </c>
-      <c r="K69" t="s">
-        <v>16</v>
-      </c>
-      <c r="L69">
-        <v>0</v>
-      </c>
-      <c r="M69">
-        <v>300</v>
-      </c>
-      <c r="N69">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B70" t="s">
-        <v>1218</v>
-      </c>
-      <c r="C70" t="s">
-        <v>17</v>
-      </c>
-      <c r="D70">
-        <v>100</v>
-      </c>
-      <c r="E70" t="s">
-        <v>17</v>
-      </c>
-      <c r="F70">
-        <v>100</v>
-      </c>
-      <c r="G70" t="s">
-        <v>24</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70" t="s">
-        <v>17</v>
-      </c>
-      <c r="J70">
-        <v>100</v>
-      </c>
-      <c r="K70" t="s">
-        <v>23</v>
-      </c>
-      <c r="L70">
-        <v>50</v>
-      </c>
-      <c r="M70">
-        <v>350</v>
-      </c>
-      <c r="N70">
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1238</v>
-      </c>
-      <c r="C71" t="s">
-        <v>17</v>
-      </c>
-      <c r="D71">
-        <v>100</v>
-      </c>
-      <c r="E71" t="s">
-        <v>17</v>
-      </c>
-      <c r="F71">
-        <v>100</v>
-      </c>
-      <c r="G71" t="s">
-        <v>17</v>
-      </c>
-      <c r="H71">
-        <v>100</v>
-      </c>
-      <c r="I71" t="s">
-        <v>17</v>
-      </c>
-      <c r="J71">
-        <v>100</v>
-      </c>
-      <c r="K71" t="s">
-        <v>17</v>
-      </c>
-      <c r="L71">
-        <v>100</v>
-      </c>
-      <c r="M71">
-        <v>500</v>
-      </c>
-      <c r="N71">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>1261</v>
-      </c>
-      <c r="B72" t="s">
-        <v>1262</v>
-      </c>
-      <c r="C72" t="s">
-        <v>17</v>
-      </c>
-      <c r="D72">
-        <v>100</v>
-      </c>
-      <c r="E72" t="s">
-        <v>18</v>
-      </c>
-      <c r="F72">
-        <v>100</v>
-      </c>
-      <c r="G72" t="s">
-        <v>22</v>
-      </c>
-      <c r="H72">
-        <v>100</v>
-      </c>
-      <c r="I72" t="s">
-        <v>24</v>
-      </c>
-      <c r="J72">
-        <v>40</v>
-      </c>
-      <c r="K72" t="s">
-        <v>84</v>
-      </c>
-      <c r="L72">
-        <v>50</v>
-      </c>
-      <c r="M72">
-        <v>390</v>
-      </c>
-      <c r="N72">
-        <v>86.5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>1263</v>
-      </c>
-      <c r="B73" t="s">
-        <v>1264</v>
-      </c>
-      <c r="C73" t="s">
-        <v>17</v>
-      </c>
-      <c r="D73">
-        <v>100</v>
-      </c>
-      <c r="E73" t="s">
-        <v>18</v>
-      </c>
-      <c r="F73">
-        <v>100</v>
-      </c>
-      <c r="G73" t="s">
-        <v>16</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73" t="s">
-        <v>17</v>
-      </c>
-      <c r="J73">
-        <v>100</v>
-      </c>
-      <c r="K73" t="s">
-        <v>24</v>
-      </c>
-      <c r="L73">
-        <v>0</v>
-      </c>
-      <c r="M73">
-        <v>300</v>
-      </c>
-      <c r="N73">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>1332</v>
-      </c>
-      <c r="B74" t="s">
-        <v>1333</v>
-      </c>
-      <c r="C74" t="s">
-        <v>22</v>
-      </c>
-      <c r="D74">
-        <v>100</v>
-      </c>
-      <c r="E74" t="s">
-        <v>17</v>
-      </c>
-      <c r="F74">
-        <v>100</v>
-      </c>
-      <c r="G74" t="s">
-        <v>16</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74" t="s">
-        <v>22</v>
-      </c>
-      <c r="J74">
-        <v>100</v>
-      </c>
-      <c r="K74" t="s">
-        <v>24</v>
-      </c>
-      <c r="L74">
-        <v>0</v>
-      </c>
-      <c r="M74">
-        <v>300</v>
-      </c>
-      <c r="N74">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>1450</v>
-      </c>
-      <c r="B75" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C75" t="s">
-        <v>17</v>
-      </c>
-      <c r="D75">
-        <v>100</v>
-      </c>
-      <c r="E75" t="s">
-        <v>17</v>
-      </c>
-      <c r="F75">
-        <v>100</v>
-      </c>
-      <c r="G75" t="s">
-        <v>24</v>
-      </c>
-      <c r="H75">
-        <v>50</v>
-      </c>
-      <c r="I75" t="s">
-        <v>17</v>
-      </c>
-      <c r="J75">
-        <v>100</v>
-      </c>
-      <c r="K75" t="s">
-        <v>17</v>
-      </c>
-      <c r="L75">
-        <v>100</v>
-      </c>
-      <c r="M75">
-        <v>450</v>
-      </c>
-      <c r="N75">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>1452</v>
-      </c>
-      <c r="B76" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C76" t="s">
-        <v>22</v>
-      </c>
-      <c r="D76">
-        <v>100</v>
-      </c>
-      <c r="E76" t="s">
-        <v>17</v>
-      </c>
-      <c r="F76">
-        <v>100</v>
-      </c>
-      <c r="G76" t="s">
-        <v>56</v>
-      </c>
-      <c r="H76">
-        <v>50</v>
-      </c>
-      <c r="I76" t="s">
-        <v>18</v>
-      </c>
-      <c r="J76">
-        <v>100</v>
-      </c>
-      <c r="K76" t="s">
-        <v>17</v>
-      </c>
-      <c r="L76">
-        <v>100</v>
-      </c>
-      <c r="M76">
-        <v>450</v>
-      </c>
-      <c r="N76">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>1524</v>
-      </c>
-      <c r="B77" t="s">
-        <v>1525</v>
-      </c>
-      <c r="C77" t="s">
-        <v>18</v>
-      </c>
-      <c r="D77">
-        <v>100</v>
-      </c>
-      <c r="E77" t="s">
-        <v>309</v>
-      </c>
-      <c r="F77">
-        <v>80</v>
-      </c>
-      <c r="G77" t="s">
-        <v>17</v>
-      </c>
-      <c r="H77">
-        <v>100</v>
-      </c>
-      <c r="I77" t="s">
-        <v>17</v>
-      </c>
-      <c r="J77">
-        <v>100</v>
-      </c>
-      <c r="K77" t="s">
-        <v>22</v>
-      </c>
-      <c r="L77">
-        <v>100</v>
-      </c>
-      <c r="M77">
-        <v>480</v>
-      </c>
-      <c r="N77">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>1585</v>
-      </c>
-      <c r="B78" t="s">
-        <v>1586</v>
-      </c>
-      <c r="C78" t="s">
-        <v>22</v>
-      </c>
-      <c r="D78">
-        <v>100</v>
-      </c>
-      <c r="E78" t="s">
-        <v>17</v>
-      </c>
-      <c r="F78">
-        <v>100</v>
-      </c>
-      <c r="G78" t="s">
-        <v>23</v>
-      </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78" t="s">
-        <v>17</v>
-      </c>
-      <c r="J78">
-        <v>100</v>
-      </c>
-      <c r="K78" t="s">
-        <v>17</v>
-      </c>
-      <c r="L78">
-        <v>100</v>
-      </c>
-      <c r="M78">
-        <v>400</v>
-      </c>
-      <c r="N78">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>1591</v>
-      </c>
-      <c r="B79" t="s">
-        <v>1592</v>
-      </c>
-      <c r="C79" t="s">
-        <v>17</v>
-      </c>
-      <c r="D79">
-        <v>100</v>
-      </c>
-      <c r="E79" t="s">
-        <v>17</v>
-      </c>
-      <c r="F79">
-        <v>100</v>
-      </c>
-      <c r="G79" t="s">
-        <v>23</v>
-      </c>
-      <c r="H79">
-        <v>25</v>
-      </c>
-      <c r="I79" t="s">
-        <v>17</v>
-      </c>
-      <c r="J79">
-        <v>100</v>
-      </c>
-      <c r="K79" t="s">
-        <v>84</v>
-      </c>
-      <c r="L79">
-        <v>50</v>
-      </c>
-      <c r="M79">
-        <v>375</v>
-      </c>
-      <c r="N79">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>1599</v>
-      </c>
-      <c r="B80" t="s">
-        <v>1600</v>
-      </c>
-      <c r="C80" t="s">
-        <v>17</v>
-      </c>
-      <c r="D80">
-        <v>100</v>
-      </c>
-      <c r="E80" t="s">
-        <v>18</v>
-      </c>
-      <c r="F80">
-        <v>100</v>
-      </c>
-      <c r="G80" t="s">
-        <v>18</v>
-      </c>
-      <c r="H80">
-        <v>100</v>
-      </c>
-      <c r="I80" t="s">
-        <v>17</v>
-      </c>
-      <c r="J80">
-        <v>100</v>
-      </c>
-      <c r="K80" t="s">
-        <v>18</v>
-      </c>
-      <c r="L80">
-        <v>100</v>
-      </c>
-      <c r="M80">
-        <v>500</v>
-      </c>
-      <c r="N80">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>1615</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1616</v>
-      </c>
-      <c r="C81" t="s">
-        <v>18</v>
-      </c>
-      <c r="D81">
-        <v>100</v>
-      </c>
-      <c r="E81" t="s">
-        <v>17</v>
-      </c>
-      <c r="F81">
-        <v>100</v>
-      </c>
-      <c r="G81" t="s">
-        <v>17</v>
-      </c>
-      <c r="H81">
-        <v>100</v>
-      </c>
-      <c r="I81" t="s">
-        <v>17</v>
-      </c>
-      <c r="J81">
-        <v>100</v>
-      </c>
-      <c r="K81" t="s">
-        <v>35</v>
-      </c>
-      <c r="L81">
-        <v>100</v>
-      </c>
-      <c r="M81">
-        <v>500</v>
-      </c>
-      <c r="N81">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>1619</v>
-      </c>
-      <c r="B82" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C82" t="s">
-        <v>17</v>
-      </c>
-      <c r="D82">
-        <v>100</v>
-      </c>
-      <c r="E82" t="s">
-        <v>17</v>
-      </c>
-      <c r="F82">
-        <v>100</v>
-      </c>
-      <c r="G82" t="s">
-        <v>17</v>
-      </c>
-      <c r="H82">
-        <v>100</v>
-      </c>
-      <c r="I82" t="s">
-        <v>17</v>
-      </c>
-      <c r="J82">
-        <v>100</v>
-      </c>
-      <c r="K82" t="s">
-        <v>17</v>
-      </c>
-      <c r="L82">
-        <v>100</v>
-      </c>
-      <c r="M82">
-        <v>500</v>
-      </c>
-      <c r="N82">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>1621</v>
-      </c>
-      <c r="B83" t="s">
-        <v>1622</v>
-      </c>
-      <c r="C83" t="s">
-        <v>65</v>
-      </c>
-      <c r="D83">
-        <v>100</v>
-      </c>
-      <c r="E83" t="s">
-        <v>65</v>
-      </c>
-      <c r="F83">
-        <v>100</v>
-      </c>
-      <c r="G83" t="s">
-        <v>16</v>
-      </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
-      <c r="I83" t="s">
-        <v>23</v>
-      </c>
-      <c r="J83">
-        <v>20</v>
-      </c>
-      <c r="K83" t="s">
-        <v>16</v>
-      </c>
-      <c r="L83">
-        <v>0</v>
-      </c>
-      <c r="M83">
-        <v>220</v>
-      </c>
-      <c r="N83">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>1623</v>
-      </c>
-      <c r="B84" t="s">
-        <v>1624</v>
-      </c>
-      <c r="C84" t="s">
-        <v>17</v>
-      </c>
-      <c r="D84">
-        <v>100</v>
-      </c>
-      <c r="E84" t="s">
-        <v>17</v>
-      </c>
-      <c r="F84">
-        <v>100</v>
-      </c>
-      <c r="G84" t="s">
-        <v>17</v>
-      </c>
-      <c r="H84">
-        <v>100</v>
-      </c>
-      <c r="I84" t="s">
-        <v>17</v>
-      </c>
-      <c r="J84">
-        <v>100</v>
-      </c>
-      <c r="K84" t="s">
-        <v>22</v>
-      </c>
-      <c r="L84">
-        <v>100</v>
-      </c>
-      <c r="M84">
-        <v>500</v>
-      </c>
-      <c r="N84">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>1625</v>
-      </c>
-      <c r="B85" t="s">
-        <v>1626</v>
-      </c>
-      <c r="C85" t="s">
-        <v>17</v>
-      </c>
-      <c r="D85">
-        <v>100</v>
-      </c>
-      <c r="E85" t="s">
-        <v>17</v>
-      </c>
-      <c r="F85">
-        <v>100</v>
-      </c>
-      <c r="G85" t="s">
-        <v>23</v>
-      </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="I85" t="s">
-        <v>18</v>
-      </c>
-      <c r="J85">
-        <v>100</v>
-      </c>
-      <c r="K85" t="s">
-        <v>47</v>
-      </c>
-      <c r="L85">
-        <v>50</v>
-      </c>
-      <c r="M85">
-        <v>350</v>
-      </c>
-      <c r="N85">
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>1637</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1638</v>
-      </c>
-      <c r="C86" t="s">
-        <v>47</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86" t="s">
-        <v>16</v>
-      </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
-      <c r="G86" t="s">
-        <v>24</v>
-      </c>
-      <c r="H86">
-        <v>0</v>
-      </c>
-      <c r="I86" t="s">
-        <v>23</v>
-      </c>
-      <c r="J86">
-        <v>0</v>
-      </c>
-      <c r="K86" t="s">
-        <v>24</v>
-      </c>
-      <c r="L86">
-        <v>0</v>
-      </c>
-      <c r="M86">
-        <v>0</v>
-      </c>
-      <c r="N86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>1645</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1646</v>
-      </c>
-      <c r="C87" t="s">
-        <v>17</v>
-      </c>
-      <c r="D87">
-        <v>100</v>
-      </c>
-      <c r="E87" t="s">
-        <v>17</v>
-      </c>
-      <c r="F87">
-        <v>100</v>
-      </c>
-      <c r="G87" t="s">
-        <v>47</v>
-      </c>
-      <c r="H87">
-        <v>25</v>
-      </c>
-      <c r="I87" t="s">
-        <v>17</v>
-      </c>
-      <c r="J87">
-        <v>100</v>
-      </c>
-      <c r="K87" t="s">
-        <v>84</v>
-      </c>
-      <c r="L87">
-        <v>50</v>
-      </c>
-      <c r="M87">
-        <v>375</v>
-      </c>
-      <c r="N87">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>1651</v>
-      </c>
-      <c r="B88" t="s">
-        <v>1652</v>
-      </c>
-      <c r="C88" t="s">
-        <v>17</v>
-      </c>
-      <c r="D88">
-        <v>100</v>
-      </c>
-      <c r="E88" t="s">
-        <v>17</v>
-      </c>
-      <c r="F88">
-        <v>100</v>
-      </c>
-      <c r="G88" t="s">
-        <v>17</v>
-      </c>
-      <c r="H88">
-        <v>100</v>
-      </c>
-      <c r="I88" t="s">
-        <v>17</v>
-      </c>
-      <c r="J88">
-        <v>100</v>
-      </c>
-      <c r="K88" t="s">
-        <v>22</v>
-      </c>
-      <c r="L88">
-        <v>100</v>
-      </c>
-      <c r="M88">
-        <v>500</v>
-      </c>
-      <c r="N88">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>1653</v>
-      </c>
-      <c r="B89" t="s">
-        <v>1654</v>
-      </c>
-      <c r="C89" t="s">
-        <v>17</v>
-      </c>
-      <c r="D89">
-        <v>100</v>
-      </c>
-      <c r="E89" t="s">
-        <v>18</v>
-      </c>
-      <c r="F89">
-        <v>100</v>
-      </c>
-      <c r="G89" t="s">
-        <v>24</v>
-      </c>
-      <c r="H89">
-        <v>0</v>
-      </c>
-      <c r="I89" t="s">
-        <v>17</v>
-      </c>
-      <c r="J89">
-        <v>100</v>
-      </c>
-      <c r="K89" t="s">
-        <v>17</v>
-      </c>
-      <c r="L89">
-        <v>100</v>
-      </c>
-      <c r="M89">
-        <v>400</v>
-      </c>
-      <c r="N89">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>1655</v>
-      </c>
-      <c r="B90" t="s">
-        <v>1656</v>
-      </c>
-      <c r="C90" t="s">
-        <v>18</v>
-      </c>
-      <c r="D90">
-        <v>100</v>
-      </c>
-      <c r="E90" t="s">
-        <v>17</v>
-      </c>
-      <c r="F90">
-        <v>100</v>
-      </c>
-      <c r="G90" t="s">
-        <v>55</v>
-      </c>
-      <c r="H90">
-        <v>0</v>
-      </c>
-      <c r="I90" t="s">
-        <v>17</v>
-      </c>
-      <c r="J90">
-        <v>100</v>
-      </c>
-      <c r="K90" t="s">
-        <v>1657</v>
-      </c>
-      <c r="L90">
-        <v>50</v>
-      </c>
-      <c r="M90">
-        <v>350</v>
-      </c>
-      <c r="N90">
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>1677</v>
-      </c>
-      <c r="B91" t="s">
-        <v>1678</v>
-      </c>
-      <c r="C91" t="s">
-        <v>17</v>
-      </c>
-      <c r="D91">
-        <v>100</v>
-      </c>
-      <c r="E91" t="s">
-        <v>24</v>
-      </c>
-      <c r="F91">
-        <v>40</v>
-      </c>
-      <c r="G91" t="s">
-        <v>16</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="I91" t="s">
-        <v>47</v>
-      </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
-      <c r="K91" t="s">
-        <v>16</v>
-      </c>
-      <c r="L91">
-        <v>0</v>
-      </c>
-      <c r="M91">
-        <v>140</v>
-      </c>
-      <c r="N91">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>1681</v>
-      </c>
-      <c r="B92" t="s">
-        <v>1682</v>
-      </c>
-      <c r="C92" t="s">
-        <v>17</v>
-      </c>
-      <c r="D92">
-        <v>100</v>
-      </c>
-      <c r="E92" t="s">
-        <v>17</v>
-      </c>
-      <c r="F92">
-        <v>100</v>
-      </c>
-      <c r="G92" t="s">
-        <v>23</v>
-      </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
-      <c r="I92" t="s">
-        <v>18</v>
-      </c>
-      <c r="J92">
-        <v>100</v>
-      </c>
-      <c r="K92" t="s">
-        <v>18</v>
-      </c>
-      <c r="L92">
-        <v>100</v>
-      </c>
-      <c r="M92">
-        <v>400</v>
-      </c>
-      <c r="N92">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>1728</v>
-      </c>
-      <c r="B93" t="s">
-        <v>1729</v>
-      </c>
-      <c r="C93" t="s">
-        <v>17</v>
-      </c>
-      <c r="D93">
-        <v>100</v>
-      </c>
-      <c r="E93" t="s">
-        <v>18</v>
-      </c>
-      <c r="F93">
-        <v>100</v>
-      </c>
-      <c r="G93" t="s">
-        <v>18</v>
-      </c>
-      <c r="H93">
-        <v>100</v>
-      </c>
-      <c r="I93" t="s">
-        <v>17</v>
-      </c>
-      <c r="J93">
-        <v>100</v>
-      </c>
-      <c r="K93" t="s">
-        <v>17</v>
-      </c>
-      <c r="L93">
-        <v>100</v>
-      </c>
-      <c r="M93">
-        <v>500</v>
-      </c>
-      <c r="N93">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>1750</v>
-      </c>
-      <c r="B94" t="s">
-        <v>1751</v>
-      </c>
-      <c r="C94" t="s">
-        <v>17</v>
-      </c>
-      <c r="D94">
-        <v>100</v>
-      </c>
-      <c r="E94" t="s">
-        <v>17</v>
-      </c>
-      <c r="F94">
-        <v>100</v>
-      </c>
-      <c r="G94" t="s">
-        <v>24</v>
-      </c>
-      <c r="H94">
-        <v>0</v>
-      </c>
-      <c r="I94" t="s">
-        <v>18</v>
-      </c>
-      <c r="J94">
-        <v>100</v>
-      </c>
-      <c r="K94" t="s">
-        <v>24</v>
-      </c>
-      <c r="L94">
-        <v>50</v>
-      </c>
-      <c r="M94">
-        <v>350</v>
-      </c>
-      <c r="N94">
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>1752</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1753</v>
-      </c>
-      <c r="C95" t="s">
-        <v>17</v>
-      </c>
-      <c r="D95">
-        <v>100</v>
-      </c>
-      <c r="E95" t="s">
-        <v>17</v>
-      </c>
-      <c r="F95">
-        <v>100</v>
-      </c>
-      <c r="G95" t="s">
-        <v>18</v>
-      </c>
-      <c r="H95">
-        <v>100</v>
-      </c>
-      <c r="I95" t="s">
-        <v>17</v>
-      </c>
-      <c r="J95">
-        <v>100</v>
-      </c>
-      <c r="K95" t="s">
-        <v>19</v>
-      </c>
-      <c r="L95">
-        <v>100</v>
-      </c>
-      <c r="M95">
-        <v>500</v>
-      </c>
-      <c r="N95">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>1756</v>
-      </c>
-      <c r="B96" t="s">
-        <v>1757</v>
-      </c>
-      <c r="C96" t="s">
-        <v>17</v>
-      </c>
-      <c r="D96">
-        <v>100</v>
-      </c>
-      <c r="E96" t="s">
-        <v>24</v>
-      </c>
-      <c r="F96">
-        <v>80</v>
-      </c>
-      <c r="G96" t="s">
-        <v>23</v>
-      </c>
-      <c r="H96">
-        <v>0</v>
-      </c>
-      <c r="I96" t="s">
-        <v>55</v>
-      </c>
-      <c r="J96">
-        <v>40</v>
-      </c>
-      <c r="K96" t="s">
-        <v>24</v>
-      </c>
-      <c r="L96">
-        <v>0</v>
-      </c>
-      <c r="M96">
-        <v>220</v>
-      </c>
-      <c r="N96">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>1758</v>
-      </c>
-      <c r="B97" t="s">
-        <v>1759</v>
-      </c>
-      <c r="C97" t="s">
-        <v>17</v>
-      </c>
-      <c r="D97">
-        <v>100</v>
-      </c>
-      <c r="E97" t="s">
-        <v>17</v>
-      </c>
-      <c r="F97">
-        <v>100</v>
-      </c>
-      <c r="G97" t="s">
-        <v>24</v>
-      </c>
-      <c r="H97">
-        <v>0</v>
-      </c>
-      <c r="I97" t="s">
-        <v>56</v>
-      </c>
-      <c r="J97">
-        <v>20</v>
-      </c>
-      <c r="K97" t="s">
-        <v>47</v>
-      </c>
-      <c r="L97">
-        <v>0</v>
-      </c>
-      <c r="M97">
-        <v>220</v>
-      </c>
-      <c r="N97">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>1761</v>
-      </c>
-      <c r="B98" t="s">
-        <v>1762</v>
-      </c>
-      <c r="C98" t="s">
-        <v>18</v>
-      </c>
-      <c r="D98">
-        <v>100</v>
-      </c>
-      <c r="E98" t="s">
-        <v>17</v>
-      </c>
-      <c r="F98">
-        <v>100</v>
-      </c>
-      <c r="G98" t="s">
-        <v>309</v>
-      </c>
-      <c r="H98">
-        <v>25</v>
-      </c>
-      <c r="I98" t="s">
-        <v>17</v>
-      </c>
-      <c r="J98">
-        <v>100</v>
-      </c>
-      <c r="K98" t="s">
-        <v>17</v>
-      </c>
-      <c r="L98">
-        <v>100</v>
-      </c>
-      <c r="M98">
-        <v>425</v>
-      </c>
-      <c r="N98">
-        <v>92.5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>1765</v>
-      </c>
-      <c r="B99" t="s">
-        <v>1766</v>
-      </c>
-      <c r="C99" t="s">
-        <v>17</v>
-      </c>
-      <c r="D99">
-        <v>100</v>
-      </c>
-      <c r="E99" t="s">
-        <v>84</v>
-      </c>
-      <c r="F99">
-        <v>80</v>
-      </c>
-      <c r="G99" t="s">
-        <v>16</v>
-      </c>
-      <c r="H99">
-        <v>0</v>
-      </c>
-      <c r="I99" t="s">
-        <v>17</v>
-      </c>
-      <c r="J99">
-        <v>100</v>
-      </c>
-      <c r="K99" t="s">
-        <v>24</v>
-      </c>
-      <c r="L99">
-        <v>0</v>
-      </c>
-      <c r="M99">
-        <v>280</v>
-      </c>
-      <c r="N99">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>1769</v>
-      </c>
-      <c r="B100" t="s">
-        <v>1770</v>
-      </c>
-      <c r="C100" t="s">
-        <v>17</v>
-      </c>
-      <c r="D100">
-        <v>100</v>
-      </c>
-      <c r="E100" t="s">
-        <v>18</v>
-      </c>
-      <c r="F100">
-        <v>100</v>
-      </c>
-      <c r="G100" t="s">
-        <v>23</v>
-      </c>
-      <c r="H100">
-        <v>50</v>
-      </c>
-      <c r="I100" t="s">
-        <v>17</v>
-      </c>
-      <c r="J100">
-        <v>100</v>
-      </c>
-      <c r="K100" t="s">
-        <v>17</v>
-      </c>
-      <c r="L100">
-        <v>100</v>
-      </c>
-      <c r="M100">
-        <v>450</v>
-      </c>
-      <c r="N100">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>1773</v>
-      </c>
-      <c r="B101" t="s">
-        <v>1774</v>
-      </c>
-      <c r="C101" t="s">
-        <v>17</v>
-      </c>
-      <c r="D101">
-        <v>100</v>
-      </c>
-      <c r="E101" t="s">
-        <v>18</v>
-      </c>
-      <c r="F101">
-        <v>100</v>
-      </c>
-      <c r="G101" t="s">
-        <v>18</v>
-      </c>
-      <c r="H101">
-        <v>100</v>
-      </c>
-      <c r="I101" t="s">
-        <v>17</v>
-      </c>
-      <c r="J101">
-        <v>100</v>
-      </c>
-      <c r="K101" t="s">
-        <v>24</v>
-      </c>
-      <c r="L101">
-        <v>0</v>
-      </c>
-      <c r="M101">
-        <v>400</v>
-      </c>
-      <c r="N101">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N102">
-        <f>AVERAGE(N2:N101)</f>
-        <v>85.495000000000005</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/上机/期中考试/3(本班)/3-w加权成绩.xlsx
+++ b/上机/期中考试/3(本班)/3-w加权成绩.xlsx
@@ -1,36 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20338"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_repository\C-Program\上机\期中考试\3(本班)\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C183D0F9-4DF4-4FCC-A87B-58AE0D08AAEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="516" yWindow="588" windowWidth="27732" windowHeight="11700" activeTab="4"/>
+    <workbookView xWindow="516" yWindow="588" windowWidth="27732" windowHeight="11700" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CS006001100" sheetId="1" r:id="rId1"/>
     <sheet name="CS006001068" sheetId="2" r:id="rId2"/>
     <sheet name="CS006001067" sheetId="3" r:id="rId3"/>
     <sheet name="CS006001061" sheetId="4" r:id="rId4"/>
-    <sheet name="CS006001060(本班) (3)" sheetId="15" r:id="rId5"/>
-    <sheet name="CS006001060(本班) (2)" sheetId="14" r:id="rId6"/>
-    <sheet name="CS006001060(本班)" sheetId="5" r:id="rId7"/>
-    <sheet name="CS006001049" sheetId="6" r:id="rId8"/>
-    <sheet name="CS006001047" sheetId="7" r:id="rId9"/>
-    <sheet name="CS006001046" sheetId="8" r:id="rId10"/>
-    <sheet name="CS006001043" sheetId="9" r:id="rId11"/>
-    <sheet name="CS006001041" sheetId="10" r:id="rId12"/>
-    <sheet name="CS006001014" sheetId="11" r:id="rId13"/>
-    <sheet name="CS006001010" sheetId="12" r:id="rId14"/>
+    <sheet name="CS006001060(本班) (4)" sheetId="16" r:id="rId5"/>
+    <sheet name="CS006001060(本班) (3)" sheetId="15" r:id="rId6"/>
+    <sheet name="CS006001060(本班) (2)" sheetId="14" r:id="rId7"/>
+    <sheet name="CS006001060(本班)" sheetId="5" r:id="rId8"/>
+    <sheet name="CS006001049" sheetId="6" r:id="rId9"/>
+    <sheet name="CS006001047" sheetId="7" r:id="rId10"/>
+    <sheet name="CS006001046" sheetId="8" r:id="rId11"/>
+    <sheet name="CS006001043" sheetId="9" r:id="rId12"/>
+    <sheet name="CS006001041" sheetId="10" r:id="rId13"/>
+    <sheet name="CS006001014" sheetId="11" r:id="rId14"/>
+    <sheet name="CS006001010" sheetId="12" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'CS006001060(本班) (3)'!$A$1:$I$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'CS006001060(本班) (3)'!$A$1:$I$10</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7051" uniqueCount="1790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7254" uniqueCount="1790">
   <si>
     <t>User Id</t>
   </si>
@@ -5406,7 +5413,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5477,6 +5484,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -5524,7 +5534,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5557,9 +5567,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5592,6 +5619,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5767,7 +5811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6793,7 +6837,1129 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:N26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2">
+        <v>60</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>140</v>
+      </c>
+      <c r="N2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3">
+        <v>100</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>300</v>
+      </c>
+      <c r="N3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4">
+        <v>100</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>300</v>
+      </c>
+      <c r="N4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5">
+        <v>50</v>
+      </c>
+      <c r="M5">
+        <v>250</v>
+      </c>
+      <c r="N5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6">
+        <v>100</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>240</v>
+      </c>
+      <c r="N6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7">
+        <v>100</v>
+      </c>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>325</v>
+      </c>
+      <c r="N7">
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8">
+        <v>25</v>
+      </c>
+      <c r="M8">
+        <v>325</v>
+      </c>
+      <c r="N8">
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>486</v>
+      </c>
+      <c r="B9" t="s">
+        <v>487</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9">
+        <v>50</v>
+      </c>
+      <c r="M9">
+        <v>350</v>
+      </c>
+      <c r="N9">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>606</v>
+      </c>
+      <c r="B10" t="s">
+        <v>607</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>200</v>
+      </c>
+      <c r="N10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>802</v>
+      </c>
+      <c r="B11" t="s">
+        <v>803</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11">
+        <v>20</v>
+      </c>
+      <c r="K11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>140</v>
+      </c>
+      <c r="N11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>806</v>
+      </c>
+      <c r="B12" t="s">
+        <v>807</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+      <c r="G12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12">
+        <v>100</v>
+      </c>
+      <c r="K12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12">
+        <v>50</v>
+      </c>
+      <c r="M12">
+        <v>375</v>
+      </c>
+      <c r="N12">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>878</v>
+      </c>
+      <c r="B13" t="s">
+        <v>879</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13">
+        <v>20</v>
+      </c>
+      <c r="K13" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>220</v>
+      </c>
+      <c r="N13">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>886</v>
+      </c>
+      <c r="B14" t="s">
+        <v>887</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>892</v>
+      </c>
+      <c r="B15" t="s">
+        <v>893</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>100</v>
+      </c>
+      <c r="N15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>974</v>
+      </c>
+      <c r="B16" t="s">
+        <v>975</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16">
+        <v>100</v>
+      </c>
+      <c r="G16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16">
+        <v>50</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16">
+        <v>100</v>
+      </c>
+      <c r="K16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16">
+        <v>100</v>
+      </c>
+      <c r="M16">
+        <v>450</v>
+      </c>
+      <c r="N16">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17">
+        <v>100</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>200</v>
+      </c>
+      <c r="N17">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18">
+        <v>80</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>47</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>80</v>
+      </c>
+      <c r="N18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>100</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <v>100</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19">
+        <v>100</v>
+      </c>
+      <c r="I19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19">
+        <v>100</v>
+      </c>
+      <c r="K19" t="s">
+        <v>65</v>
+      </c>
+      <c r="L19">
+        <v>100</v>
+      </c>
+      <c r="M19">
+        <v>500</v>
+      </c>
+      <c r="N19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>100</v>
+      </c>
+      <c r="E20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20">
+        <v>80</v>
+      </c>
+      <c r="G20" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20">
+        <v>25</v>
+      </c>
+      <c r="I20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20">
+        <v>100</v>
+      </c>
+      <c r="K20" t="s">
+        <v>64</v>
+      </c>
+      <c r="L20">
+        <v>50</v>
+      </c>
+      <c r="M20">
+        <v>355</v>
+      </c>
+      <c r="N20">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21">
+        <v>100</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21">
+        <v>100</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>200</v>
+      </c>
+      <c r="N21">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22">
+        <v>100</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22">
+        <v>100</v>
+      </c>
+      <c r="K22" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22">
+        <v>100</v>
+      </c>
+      <c r="M22">
+        <v>300</v>
+      </c>
+      <c r="N22">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <v>100</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23">
+        <v>100</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J23">
+        <v>100</v>
+      </c>
+      <c r="K23" t="s">
+        <v>61</v>
+      </c>
+      <c r="L23">
+        <v>50</v>
+      </c>
+      <c r="M23">
+        <v>350</v>
+      </c>
+      <c r="N23">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24">
+        <v>100</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24">
+        <v>100</v>
+      </c>
+      <c r="G24" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>56</v>
+      </c>
+      <c r="J24">
+        <v>40</v>
+      </c>
+      <c r="K24" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24">
+        <v>50</v>
+      </c>
+      <c r="M24">
+        <v>290</v>
+      </c>
+      <c r="N24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25">
+        <v>100</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25">
+        <v>100</v>
+      </c>
+      <c r="G25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25">
+        <v>100</v>
+      </c>
+      <c r="I25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25">
+        <v>100</v>
+      </c>
+      <c r="K25" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25">
+        <v>100</v>
+      </c>
+      <c r="M25">
+        <v>500</v>
+      </c>
+      <c r="N25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N26">
+        <f>AVERAGE(N2:N25)</f>
+        <v>65.145833333333329</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:N102"/>
   <sheetViews>
     <sheetView topLeftCell="A76" workbookViewId="0">
@@ -11258,8 +12424,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:N102"/>
   <sheetViews>
     <sheetView topLeftCell="A85" workbookViewId="0">
@@ -15724,8 +16890,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView topLeftCell="A76" workbookViewId="0">
@@ -20146,8 +21312,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:N73"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
@@ -23336,8 +24502,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:N102"/>
   <sheetViews>
     <sheetView topLeftCell="A82" workbookViewId="0">
@@ -27803,7 +28969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28881,7 +30047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView topLeftCell="A79" workbookViewId="0">
@@ -33303,7 +34469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView topLeftCell="A79" workbookViewId="0">
@@ -37725,10 +38891,1150 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2156B1A-4490-42E6-8217-C6C9C9ADA09E}">
+  <dimension ref="A1:C102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="24.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="24.77734375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C2" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C3" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C4" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C5" s="2">
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C6" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C7" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C8" s="2">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C9" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C10" s="2">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C11" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C12" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C13" s="2">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C14" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C15" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C16" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C17" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C18" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C19" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C20" s="2">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C21" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C22" s="2">
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C23" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C24" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C25" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C26" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C27" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="2">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="2">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="2">
+        <v>70.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="2">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="2">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="2">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="2">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="2">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="C37" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C38" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="C39" s="2">
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="C40" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="C41" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="C42" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="C43" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="C44" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="C45" s="2">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="C46" s="2">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="C47" s="2">
+        <v>66.75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="C48" s="2">
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C49" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="C50" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C51" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="C52" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="C53" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="C54" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="C55" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="C56" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="C57" s="2">
+        <v>74.75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="C58" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="C59" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="C60" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="C61" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="C62" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="C63" s="2">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="C64" s="2">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C65" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C66" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C67" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C68" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C69" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C70" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C71" s="2">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C72" s="2">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C73" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C74" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C75" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C76" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C77" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C78" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C79" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C80" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C81" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C82" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C83" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C84" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C85" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C86" s="2">
+        <v>91.25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C87" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C88" s="2">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C89" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C90" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C91" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C92" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C93" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C94" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C95" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C96" s="2">
+        <v>70.75</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C97" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C98" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C99" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C100" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C101" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C102" s="2">
+        <f>AVERAGE(C2:C101)</f>
+        <v>83.592500000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:N102">
+    <sortCondition ref="A2:A102"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
@@ -38042,12 +40348,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H93" sqref="H93:H101"/>
     </sheetView>
   </sheetViews>
@@ -42562,11 +44868,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView topLeftCell="C15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A33" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
@@ -47032,8 +49338,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
@@ -48856,1126 +51162,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2">
-        <v>80</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2">
-        <v>60</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>140</v>
-      </c>
-      <c r="N2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3">
-        <v>100</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J3">
-        <v>100</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>300</v>
-      </c>
-      <c r="N3">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4">
-        <v>100</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4">
-        <v>100</v>
-      </c>
-      <c r="K4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>300</v>
-      </c>
-      <c r="N4">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>193</v>
-      </c>
-      <c r="B5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5">
-        <v>100</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5">
-        <v>100</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5">
-        <v>50</v>
-      </c>
-      <c r="M5">
-        <v>250</v>
-      </c>
-      <c r="N5">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>195</v>
-      </c>
-      <c r="B6" t="s">
-        <v>196</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6">
-        <v>100</v>
-      </c>
-      <c r="E6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6">
-        <v>40</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6">
-        <v>100</v>
-      </c>
-      <c r="K6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>240</v>
-      </c>
-      <c r="N6">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>205</v>
-      </c>
-      <c r="B7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7">
-        <v>100</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7">
-        <v>100</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7">
-        <v>25</v>
-      </c>
-      <c r="I7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7">
-        <v>100</v>
-      </c>
-      <c r="K7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>325</v>
-      </c>
-      <c r="N7">
-        <v>78.75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>259</v>
-      </c>
-      <c r="B8" t="s">
-        <v>260</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8">
-        <v>100</v>
-      </c>
-      <c r="E8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8">
-        <v>100</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8">
-        <v>100</v>
-      </c>
-      <c r="K8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8">
-        <v>25</v>
-      </c>
-      <c r="M8">
-        <v>325</v>
-      </c>
-      <c r="N8">
-        <v>78.75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>486</v>
-      </c>
-      <c r="B9" t="s">
-        <v>487</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9">
-        <v>100</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9">
-        <v>100</v>
-      </c>
-      <c r="G9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9">
-        <v>100</v>
-      </c>
-      <c r="K9" t="s">
-        <v>47</v>
-      </c>
-      <c r="L9">
-        <v>50</v>
-      </c>
-      <c r="M9">
-        <v>350</v>
-      </c>
-      <c r="N9">
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>606</v>
-      </c>
-      <c r="B10" t="s">
-        <v>607</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10">
-        <v>100</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10">
-        <v>100</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>200</v>
-      </c>
-      <c r="N10">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>802</v>
-      </c>
-      <c r="B11" t="s">
-        <v>803</v>
-      </c>
-      <c r="C11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11">
-        <v>100</v>
-      </c>
-      <c r="G11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11">
-        <v>20</v>
-      </c>
-      <c r="K11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>140</v>
-      </c>
-      <c r="N11">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>806</v>
-      </c>
-      <c r="B12" t="s">
-        <v>807</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12">
-        <v>100</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12">
-        <v>100</v>
-      </c>
-      <c r="G12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12">
-        <v>25</v>
-      </c>
-      <c r="I12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12">
-        <v>100</v>
-      </c>
-      <c r="K12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L12">
-        <v>50</v>
-      </c>
-      <c r="M12">
-        <v>375</v>
-      </c>
-      <c r="N12">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>878</v>
-      </c>
-      <c r="B13" t="s">
-        <v>879</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13">
-        <v>100</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13">
-        <v>100</v>
-      </c>
-      <c r="G13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13">
-        <v>20</v>
-      </c>
-      <c r="K13" t="s">
-        <v>55</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>220</v>
-      </c>
-      <c r="N13">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>886</v>
-      </c>
-      <c r="B14" t="s">
-        <v>887</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>892</v>
-      </c>
-      <c r="B15" t="s">
-        <v>893</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15">
-        <v>100</v>
-      </c>
-      <c r="E15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15" t="s">
-        <v>47</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>100</v>
-      </c>
-      <c r="N15">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>974</v>
-      </c>
-      <c r="B16" t="s">
-        <v>975</v>
-      </c>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16">
-        <v>100</v>
-      </c>
-      <c r="E16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16">
-        <v>100</v>
-      </c>
-      <c r="G16" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16">
-        <v>50</v>
-      </c>
-      <c r="I16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16">
-        <v>100</v>
-      </c>
-      <c r="K16" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16">
-        <v>100</v>
-      </c>
-      <c r="M16">
-        <v>450</v>
-      </c>
-      <c r="N16">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>1137</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17">
-        <v>100</v>
-      </c>
-      <c r="E17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17">
-        <v>100</v>
-      </c>
-      <c r="G17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>200</v>
-      </c>
-      <c r="N17">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>1200</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1201</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18">
-        <v>80</v>
-      </c>
-      <c r="E18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18" t="s">
-        <v>47</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>80</v>
-      </c>
-      <c r="N18">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>1464</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1465</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19">
-        <v>100</v>
-      </c>
-      <c r="E19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19">
-        <v>100</v>
-      </c>
-      <c r="G19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19">
-        <v>100</v>
-      </c>
-      <c r="I19" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19">
-        <v>100</v>
-      </c>
-      <c r="K19" t="s">
-        <v>65</v>
-      </c>
-      <c r="L19">
-        <v>100</v>
-      </c>
-      <c r="M19">
-        <v>500</v>
-      </c>
-      <c r="N19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>1627</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1628</v>
-      </c>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20">
-        <v>100</v>
-      </c>
-      <c r="E20" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20">
-        <v>80</v>
-      </c>
-      <c r="G20" t="s">
-        <v>84</v>
-      </c>
-      <c r="H20">
-        <v>25</v>
-      </c>
-      <c r="I20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20">
-        <v>100</v>
-      </c>
-      <c r="K20" t="s">
-        <v>64</v>
-      </c>
-      <c r="L20">
-        <v>50</v>
-      </c>
-      <c r="M20">
-        <v>355</v>
-      </c>
-      <c r="N20">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>1687</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1688</v>
-      </c>
-      <c r="C21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21">
-        <v>100</v>
-      </c>
-      <c r="E21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21">
-        <v>100</v>
-      </c>
-      <c r="G21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>200</v>
-      </c>
-      <c r="N21">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>1691</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1692</v>
-      </c>
-      <c r="C22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22">
-        <v>100</v>
-      </c>
-      <c r="E22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22" t="s">
-        <v>19</v>
-      </c>
-      <c r="J22">
-        <v>100</v>
-      </c>
-      <c r="K22" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22">
-        <v>100</v>
-      </c>
-      <c r="M22">
-        <v>300</v>
-      </c>
-      <c r="N22">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>1736</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1737</v>
-      </c>
-      <c r="C23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23">
-        <v>100</v>
-      </c>
-      <c r="E23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23">
-        <v>100</v>
-      </c>
-      <c r="G23" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23" t="s">
-        <v>65</v>
-      </c>
-      <c r="J23">
-        <v>100</v>
-      </c>
-      <c r="K23" t="s">
-        <v>61</v>
-      </c>
-      <c r="L23">
-        <v>50</v>
-      </c>
-      <c r="M23">
-        <v>350</v>
-      </c>
-      <c r="N23">
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>1746</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1747</v>
-      </c>
-      <c r="C24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24">
-        <v>100</v>
-      </c>
-      <c r="E24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24">
-        <v>100</v>
-      </c>
-      <c r="G24" t="s">
-        <v>47</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24" t="s">
-        <v>56</v>
-      </c>
-      <c r="J24">
-        <v>40</v>
-      </c>
-      <c r="K24" t="s">
-        <v>40</v>
-      </c>
-      <c r="L24">
-        <v>50</v>
-      </c>
-      <c r="M24">
-        <v>290</v>
-      </c>
-      <c r="N24">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>1763</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1764</v>
-      </c>
-      <c r="C25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25">
-        <v>100</v>
-      </c>
-      <c r="E25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25">
-        <v>100</v>
-      </c>
-      <c r="G25" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25">
-        <v>100</v>
-      </c>
-      <c r="I25" t="s">
-        <v>18</v>
-      </c>
-      <c r="J25">
-        <v>100</v>
-      </c>
-      <c r="K25" t="s">
-        <v>17</v>
-      </c>
-      <c r="L25">
-        <v>100</v>
-      </c>
-      <c r="M25">
-        <v>500</v>
-      </c>
-      <c r="N25">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N26">
-        <f>AVERAGE(N2:N25)</f>
-        <v>65.145833333333329</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>